--- a/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
@@ -24,7 +24,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-08-24 13:56:51</t>
+    <t xml:space="preserve">2021-09-24 11:16:54</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -63,7 +63,7 @@
     <t xml:space="preserve">Historical cumulative emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">1189 Gt CO2</t>
+    <t xml:space="preserve">1190 Gt CO2</t>
   </si>
   <si>
     <t xml:space="preserve">Asia and developing Pacific</t>
@@ -117,7 +117,7 @@
     <t xml:space="preserve">Cumulative CO2 of countries between 65 and 75yrs life expectancy (1970-2018)</t>
   </si>
   <si>
-    <t xml:space="preserve">604 Gt CO2</t>
+    <t xml:space="preserve">605 Gt CO2</t>
   </si>
   <si>
     <t xml:space="preserve">Cumulative CO2 of countries below 65yrs life expectancy (1970-2018)</t>
@@ -129,13 +129,13 @@
     <t xml:space="preserve">Territorial GHG, excl. LULUCF (2019)</t>
   </si>
   <si>
-    <t xml:space="preserve">50 Gt CO2eq</t>
+    <t xml:space="preserve">51 Gt CO2eq</t>
   </si>
   <si>
     <t xml:space="preserve">Territorial GHG, incl. LULUCF (2019)</t>
   </si>
   <si>
-    <t xml:space="preserve">57 Gt CO2eq</t>
+    <t xml:space="preserve">58 Gt CO2eq</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>41176703545.0527</v>
+        <v>41241446843.9533</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -542,10 +542,10 @@
         <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>1188540811061.7</v>
+        <v>1189679505864.58</v>
       </c>
       <c r="F2" t="n">
-        <v>0.034644753601915</v>
+        <v>0.0346660143682829</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -556,7 +556,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="n">
-        <v>326050102398.452</v>
+        <v>326712801404.424</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -565,10 +565,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>1188540811061.7</v>
+        <v>1189679505864.58</v>
       </c>
       <c r="F3" t="n">
-        <v>0.274328066284235</v>
+        <v>0.274622534719542</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -579,7 +579,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>598971855842.451</v>
+        <v>599201738199.917</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -588,10 +588,10 @@
         <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>1188540811061.7</v>
+        <v>1189679505864.58</v>
       </c>
       <c r="F4" t="n">
-        <v>0.503955649034384</v>
+        <v>0.503666521316138</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>114666190179.966</v>
+        <v>114687068188.585</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -611,10 +611,10 @@
         <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>1188540811061.7</v>
+        <v>1189679505864.58</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0964764433099589</v>
+        <v>0.0964016507162051</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
@@ -625,7 +625,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>57616809562.9181</v>
+        <v>57729320270.8385</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -634,10 +634,10 @@
         <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>1188540811061.7</v>
+        <v>1189679505864.58</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0484769298846796</v>
+        <v>0.0485251027577251</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -648,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>50059149532.8568</v>
+        <v>50107130956.8652</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -657,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>1188540811061.7</v>
+        <v>1189679505864.58</v>
       </c>
       <c r="F7" t="n">
-        <v>0.042118157884827</v>
+        <v>0.0421181761221066</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -671,7 +671,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>1494489016.34197</v>
+        <v>1494770229.59111</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -680,10 +680,10 @@
         <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>36578258579.0119</v>
+        <v>36521769730.4009</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0408573036114815</v>
+        <v>0.0409281981849542</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -694,7 +694,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>17365600409.4626</v>
+        <v>17356975844.8493</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>36578258579.0119</v>
+        <v>36521769730.4009</v>
       </c>
       <c r="F9" t="n">
-        <v>0.474751972457945</v>
+        <v>0.475250130893883</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
@@ -717,7 +717,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>11258730575.8864</v>
+        <v>11245656786.8144</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -726,10 +726,10 @@
         <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>36578258579.0119</v>
+        <v>36521769730.4009</v>
       </c>
       <c r="F10" t="n">
-        <v>0.307798430359026</v>
+        <v>0.307916534982517</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
@@ -740,7 +740,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>2471791612.21309</v>
+        <v>2463828549.26231</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -749,10 +749,10 @@
         <v>23</v>
       </c>
       <c r="E11" t="n">
-        <v>36578258579.0119</v>
+        <v>36521769730.4009</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0675754316426471</v>
+        <v>0.0674619156587971</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
@@ -763,7 +763,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>1783927620.95191</v>
+        <v>1770512169.96196</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -772,10 +772,10 @@
         <v>23</v>
       </c>
       <c r="E12" t="n">
-        <v>36578258579.0119</v>
+        <v>36521769730.4009</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0487701626663963</v>
+        <v>0.0484782687978064</v>
       </c>
       <c r="G12" t="s">
         <v>24</v>
@@ -786,7 +786,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>2203719344.15584</v>
+        <v>2190026149.92183</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -795,10 +795,10 @@
         <v>23</v>
       </c>
       <c r="E13" t="n">
-        <v>36578258579.0119</v>
+        <v>36521769730.4009</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0602466992625042</v>
+        <v>0.0599649514820428</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
@@ -1085,7 +1085,7 @@
         <v>13</v>
       </c>
       <c r="B26" t="n">
-        <v>1302819408</v>
+        <v>1302819380</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -1094,10 +1094,10 @@
         <v>23</v>
       </c>
       <c r="E26" t="n">
-        <v>7618813158</v>
+        <v>7618629943</v>
       </c>
       <c r="F26" t="n">
-        <v>0.171000309494662</v>
+        <v>0.171004418083993</v>
       </c>
       <c r="G26" t="s">
         <v>30</v>
@@ -1108,7 +1108,7 @@
         <v>17</v>
       </c>
       <c r="B27" t="n">
-        <v>3970601604</v>
+        <v>3970583353</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -1117,10 +1117,10 @@
         <v>23</v>
       </c>
       <c r="E27" t="n">
-        <v>7618813158</v>
+        <v>7618629943</v>
       </c>
       <c r="F27" t="n">
-        <v>0.521157498111204</v>
+        <v>0.521167635481255</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -1131,7 +1131,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="n">
-        <v>1193017674</v>
+        <v>1192863286</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -1140,10 +1140,10 @@
         <v>23</v>
       </c>
       <c r="E28" t="n">
-        <v>7618813158</v>
+        <v>7618629943</v>
       </c>
       <c r="F28" t="n">
-        <v>0.156588388408934</v>
+        <v>0.15657188955555</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -1154,7 +1154,7 @@
         <v>19</v>
       </c>
       <c r="B29" t="n">
-        <v>249097505</v>
+        <v>249086331</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -1163,10 +1163,10 @@
         <v>23</v>
       </c>
       <c r="E29" t="n">
-        <v>7618813158</v>
+        <v>7618629943</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0326950536565449</v>
+        <v>0.0326943732486785</v>
       </c>
       <c r="G29" t="s">
         <v>30</v>
@@ -1177,7 +1177,7 @@
         <v>20</v>
       </c>
       <c r="B30" t="n">
-        <v>646430843</v>
+        <v>646430786</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -1186,10 +1186,10 @@
         <v>23</v>
       </c>
       <c r="E30" t="n">
-        <v>7618813158</v>
+        <v>7618629943</v>
       </c>
       <c r="F30" t="n">
-        <v>0.084846659131052</v>
+        <v>0.0848486920662082</v>
       </c>
       <c r="G30" t="s">
         <v>30</v>
@@ -1200,7 +1200,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="n">
-        <v>256846124</v>
+        <v>256846807</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -1209,10 +1209,10 @@
         <v>23</v>
       </c>
       <c r="E31" t="n">
-        <v>7618813158</v>
+        <v>7618629943</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0337120911976038</v>
+        <v>0.0337129915643154</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
@@ -1223,7 +1223,7 @@
         <v>13</v>
       </c>
       <c r="B32" t="n">
-        <v>1842785560.42368</v>
+        <v>1842565311.82348</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
@@ -1232,10 +1232,10 @@
         <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>490597230718.84</v>
+        <v>490738295127.81</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00375620864741443</v>
+        <v>0.00375468010162849</v>
       </c>
       <c r="G32" t="s">
         <v>32</v>
@@ -1246,7 +1246,7 @@
         <v>17</v>
       </c>
       <c r="B33" t="n">
-        <v>95046312830.2676</v>
+        <v>94976534825.3931</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
@@ -1255,10 +1255,10 @@
         <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>490597230718.84</v>
+        <v>490738295127.81</v>
       </c>
       <c r="F33" t="n">
-        <v>0.193735934242846</v>
+        <v>0.193538054332314</v>
       </c>
       <c r="G33" t="s">
         <v>32</v>
@@ -1269,7 +1269,7 @@
         <v>18</v>
       </c>
       <c r="B34" t="n">
-        <v>369870680969.589</v>
+        <v>370041679034.565</v>
       </c>
       <c r="C34" t="s">
         <v>31</v>
@@ -1278,10 +1278,10 @@
         <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>490597230718.84</v>
+        <v>490738295127.81</v>
       </c>
       <c r="F34" t="n">
-        <v>0.753919218882751</v>
+        <v>0.754050952836664</v>
       </c>
       <c r="G34" t="s">
         <v>32</v>
@@ -1292,7 +1292,7 @@
         <v>19</v>
       </c>
       <c r="B35" t="n">
-        <v>58331157.2703504</v>
+        <v>57825944.5643504</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
@@ -1301,10 +1301,10 @@
         <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>490597230718.84</v>
+        <v>490738295127.81</v>
       </c>
       <c r="F35" t="n">
-        <v>0.000118898260360911</v>
+        <v>0.000117834587474552</v>
       </c>
       <c r="G35" t="s">
         <v>32</v>
@@ -1315,7 +1315,7 @@
         <v>20</v>
       </c>
       <c r="B36" t="n">
-        <v>11923309819.3419</v>
+        <v>11944974298.2492</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
@@ -1324,10 +1324,10 @@
         <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>490597230718.84</v>
+        <v>490738295127.81</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0243036631125525</v>
+        <v>0.0243408236464167</v>
       </c>
       <c r="G36" t="s">
         <v>32</v>
@@ -1338,7 +1338,7 @@
         <v>21</v>
       </c>
       <c r="B37" t="n">
-        <v>11855810381.9478</v>
+        <v>11874715713.2148</v>
       </c>
       <c r="C37" t="s">
         <v>31</v>
@@ -1347,10 +1347,10 @@
         <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>490597230718.84</v>
+        <v>490738295127.81</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0241660768540748</v>
+        <v>0.0241976544955027</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -1361,7 +1361,7 @@
         <v>13</v>
       </c>
       <c r="B38" t="n">
-        <v>10255840754.2326</v>
+        <v>10293558079.3937</v>
       </c>
       <c r="C38" t="s">
         <v>33</v>
@@ -1370,10 +1370,10 @@
         <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>603901715211.91</v>
+        <v>604680080872.7</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0169826322659703</v>
+        <v>0.0170231472889558</v>
       </c>
       <c r="G38" t="s">
         <v>34</v>
@@ -1384,7 +1384,7 @@
         <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>191486897486.866</v>
+        <v>192043417221.044</v>
       </c>
       <c r="C39" t="s">
         <v>33</v>
@@ -1393,10 +1393,10 @@
         <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>603901715211.91</v>
+        <v>604680080872.7</v>
       </c>
       <c r="F39" t="n">
-        <v>0.317082883958481</v>
+        <v>0.317595077621672</v>
       </c>
       <c r="G39" t="s">
         <v>34</v>
@@ -1407,7 +1407,7 @@
         <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>227049863979.87</v>
+        <v>227105692972.81</v>
       </c>
       <c r="C40" t="s">
         <v>33</v>
@@ -1416,10 +1416,10 @@
         <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>603901715211.91</v>
+        <v>604680080872.7</v>
       </c>
       <c r="F40" t="n">
-        <v>0.37597155010596</v>
+        <v>0.375579914332619</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -1430,7 +1430,7 @@
         <v>19</v>
       </c>
       <c r="B41" t="n">
-        <v>102878984127.703</v>
+        <v>102898575536.138</v>
       </c>
       <c r="C41" t="s">
         <v>33</v>
@@ -1439,10 +1439,10 @@
         <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>603901715211.91</v>
+        <v>604680080872.7</v>
       </c>
       <c r="F41" t="n">
-        <v>0.170357164976097</v>
+        <v>0.170170274813138</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -1453,7 +1453,7 @@
         <v>20</v>
       </c>
       <c r="B42" t="n">
-        <v>40141595871.0142</v>
+        <v>40225847241.0209</v>
       </c>
       <c r="C42" t="s">
         <v>33</v>
@@ -1462,10 +1462,10 @@
         <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>603901715211.91</v>
+        <v>604680080872.7</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0664704120883783</v>
+        <v>0.0665241811553726</v>
       </c>
       <c r="G42" t="s">
         <v>34</v>
@@ -1476,7 +1476,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="n">
-        <v>32088532992.2242</v>
+        <v>32112989822.2935</v>
       </c>
       <c r="C43" t="s">
         <v>33</v>
@@ -1485,10 +1485,10 @@
         <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>603901715211.91</v>
+        <v>604680080872.7</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0531353566051129</v>
+        <v>0.0531074047882421</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
@@ -1499,7 +1499,7 @@
         <v>13</v>
       </c>
       <c r="B44" t="n">
-        <v>29078077230.3964</v>
+        <v>29105323452.7362</v>
       </c>
       <c r="C44" t="s">
         <v>35</v>
@@ -1508,10 +1508,10 @@
         <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>94041865130.9464</v>
+        <v>94261129864.0724</v>
       </c>
       <c r="F44" t="n">
-        <v>0.309203535998646</v>
+        <v>0.308773335251837</v>
       </c>
       <c r="G44" t="s">
         <v>36</v>
@@ -1522,7 +1522,7 @@
         <v>17</v>
       </c>
       <c r="B45" t="n">
-        <v>39516892081.3188</v>
+        <v>39692849357.9866</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
@@ -1531,10 +1531,10 @@
         <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>94041865130.9464</v>
+        <v>94261129864.0724</v>
       </c>
       <c r="F45" t="n">
-        <v>0.420205320537766</v>
+        <v>0.421094563742499</v>
       </c>
       <c r="G45" t="s">
         <v>36</v>
@@ -1545,7 +1545,7 @@
         <v>18</v>
       </c>
       <c r="B46" t="n">
-        <v>2051310892.99176</v>
+        <v>2054366192.54176</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
@@ -1554,10 +1554,10 @@
         <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>94041865130.9464</v>
+        <v>94261129864.0724</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0218127414863099</v>
+        <v>0.0217944151051894</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
@@ -1568,7 +1568,7 @@
         <v>19</v>
       </c>
       <c r="B47" t="n">
-        <v>11728874894.9925</v>
+        <v>11730666707.8825</v>
       </c>
       <c r="C47" t="s">
         <v>35</v>
@@ -1577,10 +1577,10 @@
         <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>94041865130.9464</v>
+        <v>94261129864.0724</v>
       </c>
       <c r="F47" t="n">
-        <v>0.124719717953923</v>
+        <v>0.124448611265307</v>
       </c>
       <c r="G47" t="s">
         <v>36</v>
@@ -1591,7 +1591,7 @@
         <v>20</v>
       </c>
       <c r="B48" t="n">
-        <v>5551903872.56207</v>
+        <v>5558498731.56837</v>
       </c>
       <c r="C48" t="s">
         <v>35</v>
@@ -1600,10 +1600,10 @@
         <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>94041865130.9464</v>
+        <v>94261129864.0724</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0590365138423344</v>
+        <v>0.0589691502699353</v>
       </c>
       <c r="G48" t="s">
         <v>36</v>
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B49" t="n">
-        <v>6114806158.68487</v>
+        <v>6119425421.35697</v>
       </c>
       <c r="C49" t="s">
         <v>35</v>
@@ -1623,10 +1623,10 @@
         <v>15</v>
       </c>
       <c r="E49" t="n">
-        <v>94041865130.9464</v>
+        <v>94261129864.0724</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0650221701810194</v>
+        <v>0.0649199243652329</v>
       </c>
       <c r="G49" t="s">
         <v>36</v>
@@ -1637,7 +1637,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="n">
-        <v>3227053166.38986</v>
+        <v>3433150433.67798</v>
       </c>
       <c r="C50" t="s">
         <v>37</v>
@@ -1646,10 +1646,10 @@
         <v>23</v>
       </c>
       <c r="E50" t="n">
-        <v>50317225379.5558</v>
+        <v>51126029486.308</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0641341636397351</v>
+        <v>0.0671507345313685</v>
       </c>
       <c r="G50" t="s">
         <v>38</v>
@@ -1660,7 +1660,7 @@
         <v>17</v>
       </c>
       <c r="B51" t="n">
-        <v>22708417480.4679</v>
+        <v>23078805804.8676</v>
       </c>
       <c r="C51" t="s">
         <v>37</v>
@@ -1669,10 +1669,10 @@
         <v>23</v>
       </c>
       <c r="E51" t="n">
-        <v>50317225379.5558</v>
+        <v>51126029486.308</v>
       </c>
       <c r="F51" t="n">
-        <v>0.451305041348614</v>
+        <v>0.45141009455953</v>
       </c>
       <c r="G51" t="s">
         <v>38</v>
@@ -1683,7 +1683,7 @@
         <v>18</v>
       </c>
       <c r="B52" t="n">
-        <v>14241088068.0732</v>
+        <v>14284243064.0032</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
@@ -1692,10 +1692,10 @@
         <v>23</v>
       </c>
       <c r="E52" t="n">
-        <v>50317225379.5558</v>
+        <v>51126029486.308</v>
       </c>
       <c r="F52" t="n">
-        <v>0.283026100120764</v>
+        <v>0.279392771305049</v>
       </c>
       <c r="G52" t="s">
         <v>38</v>
@@ -1706,7 +1706,7 @@
         <v>19</v>
       </c>
       <c r="B53" t="n">
-        <v>3417590169.24149</v>
+        <v>3416156396.33553</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
@@ -1715,10 +1715,10 @@
         <v>23</v>
       </c>
       <c r="E53" t="n">
-        <v>50317225379.5558</v>
+        <v>51126029486.308</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0679208788533495</v>
+        <v>0.0668183395162813</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -1729,7 +1729,7 @@
         <v>20</v>
       </c>
       <c r="B54" t="n">
-        <v>3611566163.60705</v>
+        <v>3695402314.40367</v>
       </c>
       <c r="C54" t="s">
         <v>37</v>
@@ -1738,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="E54" t="n">
-        <v>50317225379.5558</v>
+        <v>51126029486.308</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0717759402742119</v>
+        <v>0.072280252378944</v>
       </c>
       <c r="G54" t="s">
         <v>38</v>
@@ -1752,7 +1752,7 @@
         <v>21</v>
       </c>
       <c r="B55" t="n">
-        <v>3111510331.77624</v>
+        <v>3218271473.01995</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
@@ -1761,10 +1761,10 @@
         <v>23</v>
       </c>
       <c r="E55" t="n">
-        <v>50317225379.5558</v>
+        <v>51126029486.308</v>
       </c>
       <c r="F55" t="n">
-        <v>0.061837875763326</v>
+        <v>0.0629478077088273</v>
       </c>
       <c r="G55" t="s">
         <v>38</v>
@@ -1775,7 +1775,7 @@
         <v>13</v>
       </c>
       <c r="B56" t="n">
-        <v>5002955654.38453</v>
+        <v>5209052921.67265</v>
       </c>
       <c r="C56" t="s">
         <v>39</v>
@@ -1784,10 +1784,10 @@
         <v>23</v>
       </c>
       <c r="E56" t="n">
-        <v>56922264227.1558</v>
+        <v>57731068333.908</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0878910163239392</v>
+        <v>0.0902296297644149</v>
       </c>
       <c r="G56" t="s">
         <v>40</v>
@@ -1798,7 +1798,7 @@
         <v>17</v>
       </c>
       <c r="B57" t="n">
-        <v>25347914312.6279</v>
+        <v>25718302637.0276</v>
       </c>
       <c r="C57" t="s">
         <v>39</v>
@@ -1807,10 +1807,10 @@
         <v>23</v>
       </c>
       <c r="E57" t="n">
-        <v>56922264227.1558</v>
+        <v>57731068333.908</v>
       </c>
       <c r="F57" t="n">
-        <v>0.445307555080271</v>
+        <v>0.445484613038455</v>
       </c>
       <c r="G57" t="s">
         <v>40</v>
@@ -1821,7 +1821,7 @@
         <v>18</v>
       </c>
       <c r="B58" t="n">
-        <v>14099863291.7532</v>
+        <v>14143018287.6832</v>
       </c>
       <c r="C58" t="s">
         <v>39</v>
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="E58" t="n">
-        <v>56922264227.1558</v>
+        <v>57731068333.908</v>
       </c>
       <c r="F58" t="n">
-        <v>0.247703837561447</v>
+        <v>0.244981059520363</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -1844,7 +1844,7 @@
         <v>19</v>
       </c>
       <c r="B59" t="n">
-        <v>3506879515.27349</v>
+        <v>3505445742.36753</v>
       </c>
       <c r="C59" t="s">
         <v>39</v>
@@ -1853,10 +1853,10 @@
         <v>23</v>
       </c>
       <c r="E59" t="n">
-        <v>56922264227.1558</v>
+        <v>57731068333.908</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0616082224220531</v>
+        <v>0.0607202645565565</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -1867,7 +1867,7 @@
         <v>20</v>
       </c>
       <c r="B60" t="n">
-        <v>5854671636.42838</v>
+        <v>5938507787.225</v>
       </c>
       <c r="C60" t="s">
         <v>39</v>
@@ -1876,10 +1876,10 @@
         <v>23</v>
       </c>
       <c r="E60" t="n">
-        <v>56922264227.1558</v>
+        <v>57731068333.908</v>
       </c>
       <c r="F60" t="n">
-        <v>0.102853808012003</v>
+        <v>0.102865024996204</v>
       </c>
       <c r="G60" t="s">
         <v>40</v>
@@ -1890,7 +1890,7 @@
         <v>21</v>
       </c>
       <c r="B61" t="n">
-        <v>3109979816.68824</v>
+        <v>3216740957.93195</v>
       </c>
       <c r="C61" t="s">
         <v>39</v>
@@ -1899,10 +1899,10 @@
         <v>23</v>
       </c>
       <c r="E61" t="n">
-        <v>56922264227.1558</v>
+        <v>57731068333.908</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0546355606002857</v>
+        <v>0.0557194081240069</v>
       </c>
       <c r="G61" t="s">
         <v>40</v>

--- a/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Author</t>
   </si>
@@ -24,7 +24,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-09-24 11:16:54</t>
+    <t xml:space="preserve">2021-10-07 11:09:24</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -54,88 +54,82 @@
     <t xml:space="preserve">label</t>
   </si>
   <si>
+    <t xml:space="preserve">cumsum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle East</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Territorial CO2, fossil and proccess (1970-2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historical cumulative emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1190 Gt CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Territorial CO2, fossil and proccess (2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current population and emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37 Gt CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULUCF CO2 (1850-2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">763 Gt CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULUCF CO2 (2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 Gt CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumption CO2, fossil only (2018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 Gt CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population (2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 billion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Territorial GHG, excl. LULUCF (2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 Gt CO2eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Territorial GHG, incl. LULUCF (2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58 Gt CO2eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latin America and Caribbean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Europe and West-Central Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed Countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asia and developing Pacific</t>
+  </si>
+  <si>
     <t xml:space="preserve">Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Territorial CO2, fossil and proccess, all countries (1970-2018)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historical cumulative emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1190 Gt CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asia and developing Pacific</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developed Countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Europe and West-Central Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle East</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Territorial CO2, fossil and proccess (2019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current population and emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37 Gt CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULUCF CO2 (2019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 Gt CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consumption CO2, fossil only (2018)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 Gt CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population (2019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 billion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumulative CO2 of countries above 75yrs life expectancy (1970-2018)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">491 Gt CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumulative CO2 of countries between 65 and 75yrs life expectancy (1970-2018)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">605 Gt CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumulative CO2 of countries below 65yrs life expectancy (1970-2018)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94 Gt CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Territorial GHG, excl. LULUCF (2019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51 Gt CO2eq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Territorial GHG, incl. LULUCF (2019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58 Gt CO2eq</t>
   </si>
 </sst>
 </file>
@@ -527,1385 +521,1403 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>41241446843.9533</v>
+        <v>50107130956.8652</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
         <v>1189679505864.58</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0346660143682829</v>
+        <v>0.0421181761221066</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0421181761221066</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0210590880610533</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>326712801404.424</v>
+        <v>2190026149.92183</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>1189679505864.58</v>
+        <v>36521769730.4009</v>
       </c>
       <c r="F3" t="n">
-        <v>0.274622534719542</v>
+        <v>0.0599649514820428</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0599649514820428</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0299824757410214</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>599201738199.917</v>
+        <v>1474763302.48533</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>1189679505864.58</v>
+        <v>762579127591.92</v>
       </c>
       <c r="F4" t="n">
-        <v>0.503666521316138</v>
+        <v>0.00193391511664154</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.00193391511664154</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.000966957558320771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>114687068188.585</v>
+        <v>-1530515.088</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>1189679505864.58</v>
+        <v>6605038847.6</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0964016507162051</v>
+        <v>-0.000231719316617816</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.000231719316617816</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.000115859658308908</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>57729320270.8385</v>
+        <v>1881528439.69866</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>1189679505864.58</v>
+        <v>33711877353.0725</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0485251027577251</v>
+        <v>0.0558120338417514</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0558120338417514</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0279060169208757</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>50107130956.8652</v>
+        <v>256846807</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>1189679505864.58</v>
+        <v>7618629943</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0421181761221066</v>
+        <v>0.0337129915643154</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0337129915643154</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0168564957821577</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>1494770229.59111</v>
+        <v>3216534914.61995</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>36521769730.4009</v>
+        <v>50918069216.908</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0409281981849542</v>
+        <v>0.0631707950456192</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0631707950456192</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0315853975228096</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>17356975844.8493</v>
+        <v>3215004399.53195</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>36521769730.4009</v>
+        <v>57523108064.5079</v>
       </c>
       <c r="F9" t="n">
-        <v>0.475250130893883</v>
+        <v>0.0558906586884449</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0558906586884449</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0279453293442225</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="n">
+        <v>57729320270.8385</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1189679505864.58</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0485251027577251</v>
+      </c>
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="n">
-        <v>11245656786.8144</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="n">
-        <v>36521769730.4009</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.307916534982517</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
+      <c r="H10" t="n">
+        <v>0.0906432788798317</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0663807275009691</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1770512169.96196</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="n">
-        <v>2463828549.26231</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
         <v>36521769730.4009</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0674619156587971</v>
+        <v>0.0484782687978064</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.108443220279849</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.084204085880946</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n">
-        <v>1770512169.96196</v>
+        <v>202792190134.539</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="n">
+        <v>762579127591.92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.26592937414235</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" t="n">
-        <v>36521769730.4009</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0484782687978064</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
+      <c r="H12" t="n">
+        <v>0.267863289258992</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.134898602187817</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n">
-        <v>2190026149.92183</v>
+        <v>2243105472.82133</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
-        <v>36521769730.4009</v>
+        <v>6605038847.6</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0599649514820428</v>
+        <v>0.339605190003748</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.33937347068713</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.169570875685256</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B14" t="n">
-        <v>1775902487.99467</v>
+        <v>1804646774.18749</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" t="n">
-        <v>6605038847.6</v>
+        <v>33711877353.0725</v>
       </c>
       <c r="F14" t="n">
-        <v>0.268870861923841</v>
+        <v>0.0535314825480347</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.109343516389786</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0825777751157688</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
-        <v>2639496832.16</v>
+        <v>646430786</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
-        <v>6605038847.6</v>
+        <v>7618629943</v>
       </c>
       <c r="F15" t="n">
-        <v>0.399618668877184</v>
+        <v>0.0848486920662082</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.118561683630524</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0761373375974195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-141224776.32</v>
+        <v>3672431568.80367</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>6605038847.6</v>
+        <v>50918069216.908</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0213813695238621</v>
+        <v>0.072124328853856</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.135295123899475</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0992329594725472</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
-        <v>89289346.032</v>
+        <v>5915537041.625</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
-        <v>6605038847.6</v>
+        <v>57523108064.5079</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0135183680357072</v>
+        <v>0.102837576769864</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.158728235458309</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.107309447073377</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B18" t="n">
-        <v>2243105472.82133</v>
+        <v>114687068188.585</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>6605038847.6</v>
+        <v>1189679505864.58</v>
       </c>
       <c r="F18" t="n">
-        <v>0.339605190003748</v>
+        <v>0.0964016507162051</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.187044929596037</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.138844104237934</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2463828549.26231</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="n">
+        <v>36521769730.4009</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0674619156587971</v>
+      </c>
+      <c r="G19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="n">
-        <v>-1530515.088</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6605038847.6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.000231719316617816</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
+      <c r="H19" t="n">
+        <v>0.175905135938646</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.142174178109248</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B20" t="n">
-        <v>1052162387.0359</v>
+        <v>66720368724.5653</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="n">
+        <v>762579127591.92</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0874930434239075</v>
+      </c>
+      <c r="G20" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="n">
-        <v>33711877353.0725</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0312104358952294</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
+      <c r="H20" t="n">
+        <v>0.355356332682899</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.311609810970945</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B21" t="n">
-        <v>14238811019.293</v>
+        <v>89289346.032</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>33711877353.0725</v>
+        <v>6605038847.6</v>
       </c>
       <c r="F21" t="n">
-        <v>0.422367786586506</v>
+        <v>0.0135183680357072</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.352891838722837</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.346132654704984</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
-        <v>12944620056.7632</v>
+        <v>1790108676.09424</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E22" t="n">
         <v>33711877353.0725</v>
       </c>
       <c r="F22" t="n">
-        <v>0.383978024160184</v>
+        <v>0.0531002369682948</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.162443753358081</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.135893634873934</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>1790108676.09424</v>
+        <v>249086331</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>33711877353.0725</v>
+        <v>7618629943</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0531002369682948</v>
+        <v>0.0326943732486785</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.151256056879202</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.134908870254863</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B24" t="n">
-        <v>1804646774.18749</v>
+        <v>3406964482.73553</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E24" t="n">
-        <v>33711877353.0725</v>
+        <v>50918069216.908</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0535314825480347</v>
+        <v>0.0669107162768106</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.202205840176286</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.168750482037881</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B25" t="n">
-        <v>1881528439.69866</v>
+        <v>3496253828.76753</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E25" t="n">
-        <v>33711877353.0725</v>
+        <v>57523108064.5079</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0558120338417514</v>
+        <v>0.0607799881892115</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.21950822364752</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.189118229552914</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B26" t="n">
-        <v>1302819380</v>
+        <v>599201738199.917</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>7618629943</v>
+        <v>1189679505864.58</v>
       </c>
       <c r="F26" t="n">
-        <v>0.171004418083993</v>
+        <v>0.503666521316138</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.690711450912175</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.438878190254106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>3970583353</v>
+        <v>11245656786.8144</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E27" t="n">
-        <v>7618629943</v>
+        <v>36521769730.4009</v>
       </c>
       <c r="F27" t="n">
-        <v>0.521167635481255</v>
+        <v>0.307916534982517</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.483821670921163</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.329863403429905</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>1192863286</v>
+        <v>152318292712.496</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="n">
+        <v>762579127591.92</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.199740967463256</v>
+      </c>
+      <c r="G28" t="s">
         <v>23</v>
       </c>
-      <c r="E28" t="n">
-        <v>7618629943</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.15657188955555</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
+      <c r="H28" t="n">
+        <v>0.555097300146155</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.455226816414527</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B29" t="n">
-        <v>249086331</v>
+        <v>-141224776.32</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E29" t="n">
-        <v>7618629943</v>
+        <v>6605038847.6</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0326943732486785</v>
+        <v>-0.0213813695238621</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.331510469198975</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.342201153960906</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>646430786</v>
+        <v>12944620056.7632</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E30" t="n">
-        <v>7618629943</v>
+        <v>33711877353.0725</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0848486920662082</v>
+        <v>0.383978024160184</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.546421777518265</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.354432765438173</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>256846807</v>
+        <v>1192863286</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E31" t="n">
         <v>7618629943</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0337129915643154</v>
+        <v>0.15657188955555</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.307827946434752</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.229542001656977</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B32" t="n">
-        <v>1842565311.82348</v>
+        <v>14251665877.1032</v>
       </c>
       <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="n">
+        <v>50918069216.908</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.279894074859594</v>
+      </c>
+      <c r="G32" t="s">
         <v>31</v>
       </c>
-      <c r="D32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" t="n">
-        <v>490738295127.81</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.00375468010162849</v>
-      </c>
-      <c r="G32" t="s">
-        <v>32</v>
+      <c r="H32" t="n">
+        <v>0.48209991503588</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.342152877606083</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n">
-        <v>94976534825.3931</v>
+        <v>14110441100.7832</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E33" t="n">
-        <v>490738295127.81</v>
+        <v>57523108064.5079</v>
       </c>
       <c r="F33" t="n">
-        <v>0.193538054332314</v>
+        <v>0.245300394494668</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.464808618142188</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.342158420894854</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="n">
+        <v>326712801404.424</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1189679505864.58</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.274622534719542</v>
+      </c>
+      <c r="G34" t="s">
         <v>18</v>
       </c>
-      <c r="B34" t="n">
-        <v>370041679034.565</v>
-      </c>
-      <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" t="n">
-        <v>490738295127.81</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.754050952836664</v>
-      </c>
-      <c r="G34" t="s">
-        <v>32</v>
+      <c r="H34" t="n">
+        <v>0.965333985631717</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.828022718271946</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="n">
+        <v>17356975844.8493</v>
+      </c>
+      <c r="C35" t="s">
         <v>19</v>
       </c>
-      <c r="B35" t="n">
-        <v>57825944.5643504</v>
-      </c>
-      <c r="C35" t="s">
-        <v>31</v>
-      </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E35" t="n">
-        <v>490738295127.81</v>
+        <v>36521769730.4009</v>
       </c>
       <c r="F35" t="n">
-        <v>0.000117834587474552</v>
+        <v>0.475250130893883</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.959071801815046</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.721446736368104</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>11944974298.2492</v>
+        <v>223867120698.016</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E36" t="n">
-        <v>490738295127.81</v>
+        <v>762579127591.92</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0243408236464167</v>
+        <v>0.29356575940512</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.848663059551276</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.701880179848715</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>11874715713.2148</v>
+        <v>2639496832.16</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E37" t="n">
-        <v>490738295127.81</v>
+        <v>6605038847.6</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0241976544955027</v>
+        <v>0.399618668877184</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.731129138076159</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.531319803637567</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>10293558079.3937</v>
+        <v>14238811019.293</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E38" t="n">
-        <v>604680080872.7</v>
+        <v>33711877353.0725</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0170231472889558</v>
+        <v>0.422367786586506</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.968789564104771</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.757605670811518</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>192043417221.044</v>
+        <v>3970583353</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E39" t="n">
-        <v>604680080872.7</v>
+        <v>7618629943</v>
       </c>
       <c r="F39" t="n">
-        <v>0.317595077621672</v>
+        <v>0.521167635481255</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.828995581916007</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.568411764175379</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B40" t="n">
-        <v>227105692972.81</v>
+        <v>23074806107.6676</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E40" t="n">
-        <v>604680080872.7</v>
+        <v>50918069216.908</v>
       </c>
       <c r="F40" t="n">
-        <v>0.375579914332619</v>
+        <v>0.453175198167281</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.935275113203161</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.70868751411952</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B41" t="n">
-        <v>102898575536.138</v>
+        <v>25714302939.8276</v>
       </c>
       <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" t="n">
+        <v>57523108064.5079</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.447025618139251</v>
+      </c>
+      <c r="G41" t="s">
         <v>33</v>
       </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" t="n">
-        <v>604680080872.7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.170170274813138</v>
-      </c>
-      <c r="G41" t="s">
-        <v>34</v>
+      <c r="H41" t="n">
+        <v>0.911834236281439</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.688321427211814</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B42" t="n">
-        <v>40225847241.0209</v>
+        <v>41241446843.9533</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E42" t="n">
-        <v>604680080872.7</v>
+        <v>1189679505864.58</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0665241811553726</v>
+        <v>0.0346660143682829</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.982666992815859</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1494770229.59111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="n">
+        <v>36521769730.4009</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0409281981849542</v>
+      </c>
+      <c r="G43" t="s">
         <v>21</v>
       </c>
-      <c r="B43" t="n">
-        <v>32112989822.2935</v>
-      </c>
-      <c r="C43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" t="n">
-        <v>604680080872.7</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.0531074047882421</v>
-      </c>
-      <c r="G43" t="s">
-        <v>34</v>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.979535900907523</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B44" t="n">
-        <v>29105323452.7362</v>
+        <v>115406392019.819</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E44" t="n">
-        <v>94261129864.0724</v>
+        <v>762579127591.92</v>
       </c>
       <c r="F44" t="n">
-        <v>0.308773335251837</v>
+        <v>0.151336940448724</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.924331529775638</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B45" t="n">
-        <v>39692849357.9866</v>
+        <v>1775902487.99467</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E45" t="n">
-        <v>94261129864.0724</v>
+        <v>6605038847.6</v>
       </c>
       <c r="F45" t="n">
-        <v>0.421094563742499</v>
+        <v>0.268870861923841</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.865564569038079</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B46" t="n">
-        <v>2054366192.54176</v>
+        <v>1052162387.0359</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E46" t="n">
-        <v>94261129864.0724</v>
+        <v>33711877353.0725</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0217944151051894</v>
+        <v>0.0312104358952294</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.984394782052385</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B47" t="n">
-        <v>11730666707.8825</v>
+        <v>1302819380</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E47" t="n">
-        <v>94261129864.0724</v>
+        <v>7618629943</v>
       </c>
       <c r="F47" t="n">
-        <v>0.124448611265307</v>
+        <v>0.171004418083993</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.914497790958003</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B48" t="n">
-        <v>5558498731.56837</v>
+        <v>3295666265.97798</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E48" t="n">
-        <v>94261129864.0724</v>
+        <v>50918069216.908</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0589691502699353</v>
+        <v>0.064724886796839</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.96763755660158</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B49" t="n">
-        <v>6119425421.35697</v>
+        <v>5071568753.97265</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E49" t="n">
-        <v>94261129864.0724</v>
+        <v>57523108064.5079</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0649199243652329</v>
+        <v>0.0881657637185608</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="n">
-        <v>3433150433.67798</v>
-      </c>
-      <c r="C50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" t="n">
-        <v>51126029486.308</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.0671507345313685</v>
-      </c>
-      <c r="G50" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" t="n">
-        <v>23078805804.8676</v>
-      </c>
-      <c r="C51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" t="n">
-        <v>51126029486.308</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.45141009455953</v>
-      </c>
-      <c r="G51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" t="n">
-        <v>14284243064.0032</v>
-      </c>
-      <c r="C52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" t="n">
-        <v>51126029486.308</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.279392771305049</v>
-      </c>
-      <c r="G52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" t="n">
-        <v>3416156396.33553</v>
-      </c>
-      <c r="C53" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" t="n">
-        <v>51126029486.308</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.0668183395162813</v>
-      </c>
-      <c r="G53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" t="n">
-        <v>3695402314.40367</v>
-      </c>
-      <c r="C54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" t="n">
-        <v>51126029486.308</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.072280252378944</v>
-      </c>
-      <c r="G54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" t="n">
-        <v>3218271473.01995</v>
-      </c>
-      <c r="C55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" t="n">
-        <v>51126029486.308</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.0629478077088273</v>
-      </c>
-      <c r="G55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="n">
-        <v>5209052921.67265</v>
-      </c>
-      <c r="C56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" t="n">
-        <v>57731068333.908</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.0902296297644149</v>
-      </c>
-      <c r="G56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" t="n">
-        <v>25718302637.0276</v>
-      </c>
-      <c r="C57" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" t="n">
-        <v>57731068333.908</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.445484613038455</v>
-      </c>
-      <c r="G57" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" t="n">
-        <v>14143018287.6832</v>
-      </c>
-      <c r="C58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" t="n">
-        <v>57731068333.908</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.244981059520363</v>
-      </c>
-      <c r="G58" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" t="n">
-        <v>3505445742.36753</v>
-      </c>
-      <c r="C59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" t="n">
-        <v>57731068333.908</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.0607202645565565</v>
-      </c>
-      <c r="G59" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>20</v>
-      </c>
-      <c r="B60" t="n">
-        <v>5938507787.225</v>
-      </c>
-      <c r="C60" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" t="n">
-        <v>57731068333.908</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.102865024996204</v>
-      </c>
-      <c r="G60" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" t="n">
-        <v>3216740957.93195</v>
-      </c>
-      <c r="C61" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" t="n">
-        <v>57731068333.908</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.0557194081240069</v>
-      </c>
-      <c r="G61" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.95591711814072</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Author</t>
   </si>
@@ -24,7 +24,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-07 11:09:24</t>
+    <t xml:space="preserve">2021-10-19 11:26:23</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -69,7 +69,7 @@
     <t xml:space="preserve">Historical cumulative emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">1190 Gt CO2</t>
+    <t xml:space="preserve">1238 Gt CO2</t>
   </si>
   <si>
     <t xml:space="preserve">Territorial CO2, fossil and proccess (2019)</t>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t xml:space="preserve">58 Gt CO2eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Territorial CO2, excl. LULUCF (1750-2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1614 Gt CO2eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Territorial CO2, incl. LULUCF (1850-2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2372 Gt CO2eq</t>
   </si>
   <si>
     <t xml:space="preserve">Latin America and Caribbean</t>
@@ -533,7 +545,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>50107130956.8652</v>
+        <v>52297157106.7871</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -542,19 +554,19 @@
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>1189679505864.58</v>
+        <v>1238053003179.45</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0421181761221066</v>
+        <v>0.0422414524842495</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0421181761221066</v>
+        <v>0.0422414524842495</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0210590880610533</v>
+        <v>0.0211207262421248</v>
       </c>
     </row>
     <row r="3">
@@ -716,19 +728,19 @@
         <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>50918069216.908</v>
+        <v>51044144755.8797</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0631707950456192</v>
+        <v>0.0630147675115947</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0631707950456192</v>
+        <v>0.0630147675115947</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0315853975228096</v>
+        <v>0.0315073837557973</v>
       </c>
     </row>
     <row r="9">
@@ -745,955 +757,955 @@
         <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>57523108064.5079</v>
+        <v>57649183603.4797</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0558906586884449</v>
+        <v>0.0557684289450699</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0558906586884449</v>
+        <v>0.0557684289450699</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0279453293442225</v>
+        <v>0.0278842144725349</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>55.4526506499863</v>
+      </c>
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="n">
-        <v>57729320270.8385</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>1189679505864.58</v>
+        <v>1613.7765720005</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0485251027577251</v>
+        <v>0.0343620372312415</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0906432788798317</v>
+        <v>0.0343620372312415</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0663807275009691</v>
+        <v>0.0171810186156207</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>1770512169.96196</v>
+        <v>56.9274139524717</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>36521769730.4009</v>
+        <v>2371.79921725908</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0484782687978064</v>
+        <v>0.0240017846106967</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H11" t="n">
-        <v>0.108443220279849</v>
+        <v>0.0240017846106967</v>
       </c>
       <c r="I11" t="n">
-        <v>0.084204085880946</v>
+        <v>0.0120008923053484</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" t="n">
-        <v>202792190134.539</v>
+        <v>60004567655.2182</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>762579127591.92</v>
+        <v>1238053003179.45</v>
       </c>
       <c r="F12" t="n">
-        <v>0.26592937414235</v>
+        <v>0.0484668810633473</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H12" t="n">
-        <v>0.267863289258992</v>
+        <v>0.0907083335475968</v>
       </c>
       <c r="I12" t="n">
-        <v>0.134898602187817</v>
+        <v>0.0664748930159231</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B13" t="n">
-        <v>2243105472.82133</v>
+        <v>1770512169.96196</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
       <c r="E13" t="n">
-        <v>6605038847.6</v>
+        <v>36521769730.4009</v>
       </c>
       <c r="F13" t="n">
-        <v>0.339605190003748</v>
+        <v>0.0484782687978064</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H13" t="n">
-        <v>0.33937347068713</v>
+        <v>0.108443220279849</v>
       </c>
       <c r="I13" t="n">
-        <v>0.169570875685256</v>
+        <v>0.084204085880946</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B14" t="n">
-        <v>1804646774.18749</v>
+        <v>202792190134.539</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
-        <v>33711877353.0725</v>
+        <v>762579127591.92</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0535314825480347</v>
+        <v>0.26592937414235</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H14" t="n">
-        <v>0.109343516389786</v>
+        <v>0.267863289258992</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0825777751157688</v>
+        <v>0.134898602187817</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>646430786</v>
+        <v>2243105472.82133</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15" t="n">
-        <v>7618629943</v>
+        <v>6605038847.6</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0848486920662082</v>
+        <v>0.339605190003748</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H15" t="n">
-        <v>0.118561683630524</v>
+        <v>0.33937347068713</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0761373375974195</v>
+        <v>0.169570875685256</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B16" t="n">
-        <v>3672431568.80367</v>
+        <v>1804646774.18749</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>50918069216.908</v>
+        <v>33711877353.0725</v>
       </c>
       <c r="F16" t="n">
-        <v>0.072124328853856</v>
+        <v>0.0535314825480347</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H16" t="n">
-        <v>0.135295123899475</v>
+        <v>0.109343516389786</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0992329594725472</v>
+        <v>0.0825777751157688</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B17" t="n">
-        <v>5915537041.625</v>
+        <v>646430786</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17" t="n">
-        <v>57523108064.5079</v>
+        <v>7618629943</v>
       </c>
       <c r="F17" t="n">
-        <v>0.102837576769864</v>
+        <v>0.0848486920662082</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H17" t="n">
-        <v>0.158728235458309</v>
+        <v>0.118561683630524</v>
       </c>
       <c r="I17" t="n">
-        <v>0.107309447073377</v>
+        <v>0.0761373375974195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18" t="n">
-        <v>114687068188.585</v>
+        <v>3672431568.80367</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E18" t="n">
-        <v>1189679505864.58</v>
+        <v>51044144755.8797</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0964016507162051</v>
+        <v>0.071946186705002</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H18" t="n">
-        <v>0.187044929596037</v>
+        <v>0.134960954216597</v>
       </c>
       <c r="I18" t="n">
-        <v>0.138844104237934</v>
+        <v>0.0989878608640957</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" t="n">
-        <v>2463828549.26231</v>
+        <v>5915537041.625</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>36521769730.4009</v>
+        <v>57649183603.4797</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0674619156587971</v>
+        <v>0.102612676743404</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H19" t="n">
-        <v>0.175905135938646</v>
+        <v>0.158381105688474</v>
       </c>
       <c r="I19" t="n">
-        <v>0.142174178109248</v>
+        <v>0.107074767316772</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="n">
+        <v>69.7469431238433</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1613.7765720005</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0432197023639911</v>
+      </c>
+      <c r="G20" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="n">
-        <v>66720368724.5653</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="n">
-        <v>762579127591.92</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0874930434239075</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
       <c r="H20" t="n">
-        <v>0.355356332682899</v>
+        <v>0.0775817395952326</v>
       </c>
       <c r="I20" t="n">
-        <v>0.311609810970945</v>
+        <v>0.055971888413237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" t="n">
-        <v>89289346.032</v>
+        <v>272.539133258382</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E21" t="n">
-        <v>6605038847.6</v>
+        <v>2371.79921725908</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0135183680357072</v>
+        <v>0.114908180791684</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H21" t="n">
-        <v>0.352891838722837</v>
+        <v>0.138909965402381</v>
       </c>
       <c r="I21" t="n">
-        <v>0.346132654704984</v>
+        <v>0.0814558750065388</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B22" t="n">
-        <v>1790108676.09424</v>
+        <v>120067434799.314</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E22" t="n">
-        <v>33711877353.0725</v>
+        <v>1238053003179.45</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0531002369682948</v>
+        <v>0.0969808517817638</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H22" t="n">
-        <v>0.162443753358081</v>
+        <v>0.187689185329361</v>
       </c>
       <c r="I22" t="n">
-        <v>0.135893634873934</v>
+        <v>0.139198759438479</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B23" t="n">
-        <v>249086331</v>
+        <v>2463828549.26231</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>7618629943</v>
+        <v>36521769730.4009</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0326943732486785</v>
+        <v>0.0674619156587971</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H23" t="n">
-        <v>0.151256056879202</v>
+        <v>0.175905135938646</v>
       </c>
       <c r="I23" t="n">
-        <v>0.134908870254863</v>
+        <v>0.142174178109248</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B24" t="n">
-        <v>3406964482.73553</v>
+        <v>66720368724.5653</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E24" t="n">
-        <v>50918069216.908</v>
+        <v>762579127591.92</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0669107162768106</v>
+        <v>0.0874930434239075</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>0.202205840176286</v>
+        <v>0.355356332682899</v>
       </c>
       <c r="I24" t="n">
-        <v>0.168750482037881</v>
+        <v>0.311609810970945</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B25" t="n">
-        <v>3496253828.76753</v>
+        <v>89289346.032</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="n">
-        <v>57523108064.5079</v>
+        <v>6605038847.6</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0607799881892115</v>
+        <v>0.0135183680357072</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H25" t="n">
-        <v>0.21950822364752</v>
+        <v>0.352891838722837</v>
       </c>
       <c r="I25" t="n">
-        <v>0.189118229552914</v>
+        <v>0.346132654704984</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B26" t="n">
-        <v>599201738199.917</v>
+        <v>1790108676.09424</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>1189679505864.58</v>
+        <v>33711877353.0725</v>
       </c>
       <c r="F26" t="n">
-        <v>0.503666521316138</v>
+        <v>0.0531002369682948</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H26" t="n">
-        <v>0.690711450912175</v>
+        <v>0.162443753358081</v>
       </c>
       <c r="I26" t="n">
-        <v>0.438878190254106</v>
+        <v>0.135893634873934</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>11245656786.8144</v>
+        <v>249086331</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
       </c>
       <c r="E27" t="n">
-        <v>36521769730.4009</v>
+        <v>7618629943</v>
       </c>
       <c r="F27" t="n">
-        <v>0.307916534982517</v>
+        <v>0.0326943732486785</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H27" t="n">
-        <v>0.483821670921163</v>
+        <v>0.151256056879202</v>
       </c>
       <c r="I27" t="n">
-        <v>0.329863403429905</v>
+        <v>0.134908870254863</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B28" t="n">
-        <v>152318292712.496</v>
+        <v>3406964482.73553</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E28" t="n">
-        <v>762579127591.92</v>
+        <v>51044144755.8797</v>
       </c>
       <c r="F28" t="n">
-        <v>0.199740967463256</v>
+        <v>0.0667454513936799</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H28" t="n">
-        <v>0.555097300146155</v>
+        <v>0.201706405610277</v>
       </c>
       <c r="I28" t="n">
-        <v>0.455226816414527</v>
+        <v>0.168333679913437</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B29" t="n">
-        <v>-141224776.32</v>
+        <v>3496253828.76753</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
         <v>20</v>
       </c>
       <c r="E29" t="n">
-        <v>6605038847.6</v>
+        <v>57649183603.4797</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.0213813695238621</v>
+        <v>0.0606470657557846</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H29" t="n">
-        <v>0.331510469198975</v>
+        <v>0.219028171444258</v>
       </c>
       <c r="I29" t="n">
-        <v>0.342201153960906</v>
+        <v>0.188704638566366</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>12944620056.7632</v>
+        <v>149.231345686853</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>33711877353.0725</v>
+        <v>1613.7765720005</v>
       </c>
       <c r="F30" t="n">
-        <v>0.383978024160184</v>
+        <v>0.0924733623452351</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H30" t="n">
-        <v>0.546421777518265</v>
+        <v>0.170055101940468</v>
       </c>
       <c r="I30" t="n">
-        <v>0.354432765438173</v>
+        <v>0.12381842076785</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="n">
+        <v>215.951656273784</v>
+      </c>
+      <c r="C31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="n">
-        <v>1192863286</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E31" t="n">
-        <v>7618629943</v>
+        <v>2371.79921725908</v>
       </c>
       <c r="F31" t="n">
-        <v>0.15657188955555</v>
+        <v>0.0910497206940407</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H31" t="n">
-        <v>0.307827946434752</v>
+        <v>0.229959686096422</v>
       </c>
       <c r="I31" t="n">
-        <v>0.229542001656977</v>
+        <v>0.184434825749401</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>14251665877.1032</v>
+        <v>610480923704.844</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E32" t="n">
-        <v>50918069216.908</v>
+        <v>1238053003179.45</v>
       </c>
       <c r="F32" t="n">
-        <v>0.279894074859594</v>
+        <v>0.493097567016167</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H32" t="n">
-        <v>0.48209991503588</v>
+        <v>0.680786752345527</v>
       </c>
       <c r="I32" t="n">
-        <v>0.342152877606083</v>
+        <v>0.434237968837444</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33" t="n">
-        <v>14110441100.7832</v>
+        <v>11245656786.8144</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
       </c>
       <c r="E33" t="n">
-        <v>57523108064.5079</v>
+        <v>36521769730.4009</v>
       </c>
       <c r="F33" t="n">
-        <v>0.245300394494668</v>
+        <v>0.307916534982517</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H33" t="n">
-        <v>0.464808618142188</v>
+        <v>0.483821670921163</v>
       </c>
       <c r="I33" t="n">
-        <v>0.342158420894854</v>
+        <v>0.329863403429905</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>326712801404.424</v>
+        <v>152318292712.496</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34" t="n">
-        <v>1189679505864.58</v>
+        <v>762579127591.92</v>
       </c>
       <c r="F34" t="n">
-        <v>0.274622534719542</v>
+        <v>0.199740967463256</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H34" t="n">
-        <v>0.965333985631717</v>
+        <v>0.555097300146155</v>
       </c>
       <c r="I34" t="n">
-        <v>0.828022718271946</v>
+        <v>0.455226816414527</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>17356975844.8493</v>
+        <v>-141224776.32</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
       </c>
       <c r="E35" t="n">
-        <v>36521769730.4009</v>
+        <v>6605038847.6</v>
       </c>
       <c r="F35" t="n">
-        <v>0.475250130893883</v>
+        <v>-0.0213813695238621</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H35" t="n">
-        <v>0.959071801815046</v>
+        <v>0.331510469198975</v>
       </c>
       <c r="I35" t="n">
-        <v>0.721446736368104</v>
+        <v>0.342201153960906</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36" t="n">
-        <v>223867120698.016</v>
+        <v>12944620056.7632</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E36" t="n">
-        <v>762579127591.92</v>
+        <v>33711877353.0725</v>
       </c>
       <c r="F36" t="n">
-        <v>0.29356575940512</v>
+        <v>0.383978024160184</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H36" t="n">
-        <v>0.848663059551276</v>
+        <v>0.546421777518265</v>
       </c>
       <c r="I36" t="n">
-        <v>0.701880179848715</v>
+        <v>0.354432765438173</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n">
-        <v>2639496832.16</v>
+        <v>1192863286</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
         <v>20</v>
       </c>
       <c r="E37" t="n">
-        <v>6605038847.6</v>
+        <v>7618629943</v>
       </c>
       <c r="F37" t="n">
-        <v>0.399618668877184</v>
+        <v>0.15657188955555</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H37" t="n">
-        <v>0.731129138076159</v>
+        <v>0.307827946434752</v>
       </c>
       <c r="I37" t="n">
-        <v>0.531319803637567</v>
+        <v>0.229542001656977</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>14238811019.293</v>
+        <v>14251665877.1032</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
       </c>
       <c r="E38" t="n">
-        <v>33711877353.0725</v>
+        <v>51044144755.8797</v>
       </c>
       <c r="F38" t="n">
-        <v>0.422367786586506</v>
+        <v>0.279202755678683</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H38" t="n">
-        <v>0.968789564104771</v>
+        <v>0.48090916128896</v>
       </c>
       <c r="I38" t="n">
-        <v>0.757605670811518</v>
+        <v>0.341307783449618</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>3970583353</v>
+        <v>14110441100.7832</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
         <v>20</v>
       </c>
       <c r="E39" t="n">
-        <v>7618629943</v>
+        <v>57649183603.4797</v>
       </c>
       <c r="F39" t="n">
-        <v>0.521167635481255</v>
+        <v>0.244763936256879</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H39" t="n">
-        <v>0.828995581916007</v>
+        <v>0.463792107701137</v>
       </c>
       <c r="I39" t="n">
-        <v>0.568411764175379</v>
+        <v>0.341410139572698</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>23074806107.6676</v>
+        <v>943.324322096976</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E40" t="n">
-        <v>50918069216.908</v>
+        <v>1613.7765720005</v>
       </c>
       <c r="F40" t="n">
-        <v>0.453175198167281</v>
+        <v>0.584544563642782</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H40" t="n">
-        <v>0.935275113203161</v>
+        <v>0.75459966558325</v>
       </c>
       <c r="I40" t="n">
-        <v>0.70868751411952</v>
+        <v>0.462327383761859</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1091.08619061377</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2371.79921725908</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.460024686185141</v>
+      </c>
+      <c r="G41" t="s">
         <v>37</v>
       </c>
-      <c r="B41" t="n">
-        <v>25714302939.8276</v>
-      </c>
-      <c r="C41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" t="n">
-        <v>57523108064.5079</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.447025618139251</v>
-      </c>
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
       <c r="H41" t="n">
-        <v>0.911834236281439</v>
+        <v>0.689984372281563</v>
       </c>
       <c r="I41" t="n">
-        <v>0.688321427211814</v>
+        <v>0.459972029188992</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>41241446843.9533</v>
+        <v>352380229527.506</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1702,27 +1714,27 @@
         <v>17</v>
       </c>
       <c r="E42" t="n">
-        <v>1189679505864.58</v>
+        <v>1238053003179.45</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0346660143682829</v>
+        <v>0.28462451011593</v>
       </c>
       <c r="G42" t="s">
         <v>18</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0.965411262461457</v>
       </c>
       <c r="I42" t="n">
-        <v>0.982666992815859</v>
+        <v>0.823099007403492</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1494770229.59111</v>
+        <v>17356975844.8493</v>
       </c>
       <c r="C43" t="s">
         <v>19</v>
@@ -1734,24 +1746,24 @@
         <v>36521769730.4009</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0409281981849542</v>
+        <v>0.475250130893883</v>
       </c>
       <c r="G43" t="s">
         <v>21</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0.959071801815046</v>
       </c>
       <c r="I43" t="n">
-        <v>0.979535900907523</v>
+        <v>0.721446736368104</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B44" t="n">
-        <v>115406392019.819</v>
+        <v>223867120698.016</v>
       </c>
       <c r="C44" t="s">
         <v>22</v>
@@ -1763,24 +1775,24 @@
         <v>762579127591.92</v>
       </c>
       <c r="F44" t="n">
-        <v>0.151336940448724</v>
+        <v>0.29356575940512</v>
       </c>
       <c r="G44" t="s">
         <v>23</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0.848663059551276</v>
       </c>
       <c r="I44" t="n">
-        <v>0.924331529775638</v>
+        <v>0.701880179848715</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B45" t="n">
-        <v>1775902487.99467</v>
+        <v>2639496832.16</v>
       </c>
       <c r="C45" t="s">
         <v>24</v>
@@ -1792,24 +1804,24 @@
         <v>6605038847.6</v>
       </c>
       <c r="F45" t="n">
-        <v>0.268870861923841</v>
+        <v>0.399618668877184</v>
       </c>
       <c r="G45" t="s">
         <v>25</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.731129138076159</v>
       </c>
       <c r="I45" t="n">
-        <v>0.865564569038079</v>
+        <v>0.531319803637567</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B46" t="n">
-        <v>1052162387.0359</v>
+        <v>14238811019.293</v>
       </c>
       <c r="C46" t="s">
         <v>26</v>
@@ -1821,24 +1833,24 @@
         <v>33711877353.0725</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0312104358952294</v>
+        <v>0.422367786586506</v>
       </c>
       <c r="G46" t="s">
         <v>27</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0.968789564104771</v>
       </c>
       <c r="I46" t="n">
-        <v>0.984394782052385</v>
+        <v>0.757605670811518</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B47" t="n">
-        <v>1302819380</v>
+        <v>3970583353</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -1850,24 +1862,24 @@
         <v>7618629943</v>
       </c>
       <c r="F47" t="n">
-        <v>0.171004418083993</v>
+        <v>0.521167635481255</v>
       </c>
       <c r="G47" t="s">
         <v>29</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0.828995581916007</v>
       </c>
       <c r="I47" t="n">
-        <v>0.914497790958003</v>
+        <v>0.568411764175379</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B48" t="n">
-        <v>3295666265.97798</v>
+        <v>23200881646.6394</v>
       </c>
       <c r="C48" t="s">
         <v>30</v>
@@ -1876,27 +1888,27 @@
         <v>20</v>
       </c>
       <c r="E48" t="n">
-        <v>50918069216.908</v>
+        <v>51044144755.8797</v>
       </c>
       <c r="F48" t="n">
-        <v>0.064724886796839</v>
+        <v>0.454525817948334</v>
       </c>
       <c r="G48" t="s">
         <v>31</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0.935434979237293</v>
       </c>
       <c r="I48" t="n">
-        <v>0.96763755660158</v>
+        <v>0.708172070263126</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B49" t="n">
-        <v>5071568753.97265</v>
+        <v>25840378478.7994</v>
       </c>
       <c r="C49" t="s">
         <v>32</v>
@@ -1905,19 +1917,367 @@
         <v>20</v>
       </c>
       <c r="E49" t="n">
-        <v>57523108064.5079</v>
+        <v>57649183603.4797</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0881657637185608</v>
+        <v>0.448234942172531</v>
       </c>
       <c r="G49" t="s">
         <v>33</v>
       </c>
       <c r="H49" t="n">
+        <v>0.912027049873669</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.687909578787403</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="n">
+        <v>349.720883370764</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1613.7765720005</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.21670960493449</v>
+      </c>
+      <c r="G50" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.97130927051774</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.862954468050495</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="n">
+        <v>573.58800406878</v>
+      </c>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2371.79921725908</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.241836661339164</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.931821033620727</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.810902702951145</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" t="n">
+        <v>42822690385.7787</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1238053003179.45</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0345887375385428</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="n">
         <v>1</v>
       </c>
-      <c r="I49" t="n">
-        <v>0.95591711814072</v>
+      <c r="I52" t="n">
+        <v>0.982705631230729</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1494770229.59111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" t="n">
+        <v>36521769730.4009</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0409281981849542</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.979535900907523</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="n">
+        <v>115406392019.819</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="n">
+        <v>762579127591.92</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.151336940448724</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.924331529775638</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1775902487.99467</v>
+      </c>
+      <c r="C55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6605038847.6</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.268870861923841</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.865564569038079</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1052162387.0359</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" t="n">
+        <v>33711877353.0725</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0312104358952294</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.984394782052385</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1302819380</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" t="n">
+        <v>7618629943</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.171004418083993</v>
+      </c>
+      <c r="G57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.914497790958003</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3295666265.97798</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" t="n">
+        <v>51044144755.8797</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0645650207627067</v>
+      </c>
+      <c r="G58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.967717489618647</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5071568753.97265</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" t="n">
+        <v>57649183603.4797</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0879729501263315</v>
+      </c>
+      <c r="G59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.956013524936834</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" t="n">
+        <v>46.300427072075</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1613.7765720005</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0286907294822599</v>
+      </c>
+      <c r="G60" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.98565463525887</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" t="n">
+        <v>161.706819091894</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2371.79921725908</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0681789663792732</v>
+      </c>
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.965910516810363</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">Author</t>
   </si>
@@ -24,7 +24,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-19 11:26:23</t>
+    <t xml:space="preserve">2021-10-20 15:11:36</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -33,7 +33,7 @@
     <t xml:space="preserve">https://github.com/mcc-apsis/AR6-Emissions-trends-and-drivers/blob/master/R/Analysis%20and%20figures/equity_perspectives.Rmd</t>
   </si>
   <si>
-    <t xml:space="preserve">region_select</t>
+    <t xml:space="preserve">region_ar6_6</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -120,13 +120,19 @@
     <t xml:space="preserve">Territorial CO2, excl. LULUCF (1750-2019)</t>
   </si>
   <si>
-    <t xml:space="preserve">1614 Gt CO2eq</t>
+    <t xml:space="preserve">1612 Gt CO2eq</t>
   </si>
   <si>
     <t xml:space="preserve">Territorial CO2, incl. LULUCF (1850-2019)</t>
   </si>
   <si>
-    <t xml:space="preserve">2372 Gt CO2eq</t>
+    <t xml:space="preserve">2370 Gt CO2eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Territorial CO2, excl. LULUCF (1850-2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1607 Gt CO2eq</t>
   </si>
   <si>
     <t xml:space="preserve">Latin America and Caribbean</t>
@@ -661,7 +667,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>1881528439.69866</v>
+        <v>1882897819.93133</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -670,19 +676,19 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>33711877353.0725</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0558120338417514</v>
+        <v>0.0553628708831833</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0558120338417514</v>
+        <v>0.0553628708831833</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0279060169208757</v>
+        <v>0.0276814354415917</v>
       </c>
     </row>
     <row r="7">
@@ -777,7 +783,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>55.4526506499863</v>
+        <v>55.9783077</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -786,19 +792,19 @@
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>1613.7765720005</v>
+        <v>1611.753827743</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0343620372312415</v>
+        <v>0.0347313012300325</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0343620372312415</v>
+        <v>0.0347313012300325</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0171810186156207</v>
+        <v>0.0173656506150162</v>
       </c>
     </row>
     <row r="11">
@@ -806,7 +812,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>56.9274139524717</v>
+        <v>57.4530710024853</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -815,1469 +821,1643 @@
         <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>2371.79921725908</v>
+        <v>2369.77043627992</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0240017846106967</v>
+        <v>0.0242441504556346</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0240017846106967</v>
+        <v>0.0242441504556346</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0120008923053484</v>
+        <v>0.0121220752278173</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="n">
+        <v>55.9783077</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="n">
-        <v>60004567655.2182</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>1238053003179.45</v>
+        <v>1607.191308688</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0484668810633473</v>
+        <v>0.034829896974553</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0907083335475968</v>
+        <v>0.034829896974553</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0664748930159231</v>
+        <v>0.0174149484872765</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>1770512169.96196</v>
+        <v>60004567655.2182</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>36521769730.4009</v>
+        <v>1238053003179.45</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0484782687978064</v>
+        <v>0.0484668810633473</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H13" t="n">
-        <v>0.108443220279849</v>
+        <v>0.0907083335475968</v>
       </c>
       <c r="I13" t="n">
-        <v>0.084204085880946</v>
+        <v>0.0664748930159231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" t="n">
-        <v>202792190134.539</v>
+        <v>1770512169.96196</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E14" t="n">
-        <v>762579127591.92</v>
+        <v>36521769730.4009</v>
       </c>
       <c r="F14" t="n">
-        <v>0.26592937414235</v>
+        <v>0.0484782687978064</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H14" t="n">
-        <v>0.267863289258992</v>
+        <v>0.108443220279849</v>
       </c>
       <c r="I14" t="n">
-        <v>0.134898602187817</v>
+        <v>0.084204085880946</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" t="n">
-        <v>2243105472.82133</v>
+        <v>202792190134.539</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E15" t="n">
-        <v>6605038847.6</v>
+        <v>762579127591.92</v>
       </c>
       <c r="F15" t="n">
-        <v>0.339605190003748</v>
+        <v>0.26592937414235</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H15" t="n">
-        <v>0.33937347068713</v>
+        <v>0.267863289258992</v>
       </c>
       <c r="I15" t="n">
-        <v>0.169570875685256</v>
+        <v>0.134898602187817</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" t="n">
-        <v>1804646774.18749</v>
+        <v>2243105472.82133</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>33711877353.0725</v>
+        <v>6605038847.6</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0535314825480347</v>
+        <v>0.339605190003748</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H16" t="n">
-        <v>0.109343516389786</v>
+        <v>0.33937347068713</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0825777751157688</v>
+        <v>0.169570875685256</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>646430786</v>
+        <v>1805960199.78733</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17" t="n">
-        <v>7618629943</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0848486920662082</v>
+        <v>0.0531006729641019</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H17" t="n">
-        <v>0.118561683630524</v>
+        <v>0.108463543847285</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0761373375974195</v>
+        <v>0.0819132073652342</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" t="n">
-        <v>3672431568.80367</v>
+        <v>646430786</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
       <c r="E18" t="n">
-        <v>51044144755.8797</v>
+        <v>7618629943</v>
       </c>
       <c r="F18" t="n">
-        <v>0.071946186705002</v>
+        <v>0.0848486920662082</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H18" t="n">
-        <v>0.134960954216597</v>
+        <v>0.118561683630524</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0989878608640957</v>
+        <v>0.0761373375974195</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" t="n">
-        <v>5915537041.625</v>
+        <v>3672431568.80367</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>57649183603.4797</v>
+        <v>51044144755.8797</v>
       </c>
       <c r="F19" t="n">
-        <v>0.102612676743404</v>
+        <v>0.071946186705002</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H19" t="n">
-        <v>0.158381105688474</v>
+        <v>0.134960954216597</v>
       </c>
       <c r="I19" t="n">
-        <v>0.107074767316772</v>
+        <v>0.0989878608640957</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" t="n">
-        <v>69.7469431238433</v>
+        <v>5915537041.625</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E20" t="n">
-        <v>1613.7765720005</v>
+        <v>57649183603.4797</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0432197023639911</v>
+        <v>0.102612676743404</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0775817395952326</v>
+        <v>0.158381105688474</v>
       </c>
       <c r="I20" t="n">
-        <v>0.055971888413237</v>
+        <v>0.107074767316772</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="n">
-        <v>272.539133258382</v>
+        <v>68.456694403</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" t="n">
-        <v>2371.79921725908</v>
+        <v>1611.753827743</v>
       </c>
       <c r="F21" t="n">
-        <v>0.114908180791684</v>
+        <v>0.0424734182259474</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H21" t="n">
-        <v>0.138909965402381</v>
+        <v>0.0772047194559799</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0814558750065388</v>
+        <v>0.0559680103430062</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>120067434799.314</v>
+        <v>271.248884537539</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
       </c>
       <c r="E22" t="n">
-        <v>1238053003179.45</v>
+        <v>2369.77043627992</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0969808517817638</v>
+        <v>0.114462093198929</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H22" t="n">
-        <v>0.187689185329361</v>
+        <v>0.138706243654564</v>
       </c>
       <c r="I22" t="n">
-        <v>0.139198759438479</v>
+        <v>0.0814751970550992</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="n">
+        <v>68.456694403</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1607.191308688</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0425939924095802</v>
+      </c>
+      <c r="G23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" t="n">
-        <v>2463828549.26231</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="n">
-        <v>36521769730.4009</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.0674619156587971</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
       <c r="H23" t="n">
-        <v>0.175905135938646</v>
+        <v>0.0774238893841332</v>
       </c>
       <c r="I23" t="n">
-        <v>0.142174178109248</v>
+        <v>0.0561268931793431</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" t="n">
-        <v>66720368724.5653</v>
+        <v>120067434799.314</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" t="n">
-        <v>762579127591.92</v>
+        <v>1238053003179.45</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0874930434239075</v>
+        <v>0.0969808517817638</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H24" t="n">
-        <v>0.355356332682899</v>
+        <v>0.187689185329361</v>
       </c>
       <c r="I24" t="n">
-        <v>0.311609810970945</v>
+        <v>0.139198759438479</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" t="n">
-        <v>89289346.032</v>
+        <v>2463828549.26231</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="n">
-        <v>6605038847.6</v>
+        <v>36521769730.4009</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0135183680357072</v>
+        <v>0.0674619156587971</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H25" t="n">
-        <v>0.352891838722837</v>
+        <v>0.175905135938646</v>
       </c>
       <c r="I25" t="n">
-        <v>0.346132654704984</v>
+        <v>0.142174178109248</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" t="n">
-        <v>1790108676.09424</v>
+        <v>66720368724.5653</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>33711877353.0725</v>
+        <v>762579127591.92</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0531002369682948</v>
+        <v>0.0874930434239075</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H26" t="n">
-        <v>0.162443753358081</v>
+        <v>0.355356332682899</v>
       </c>
       <c r="I26" t="n">
-        <v>0.135893634873934</v>
+        <v>0.311609810970945</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" t="n">
-        <v>249086331</v>
+        <v>89289346.032</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
       </c>
       <c r="E27" t="n">
-        <v>7618629943</v>
+        <v>6605038847.6</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0326943732486785</v>
+        <v>0.0135183680357072</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H27" t="n">
-        <v>0.151256056879202</v>
+        <v>0.352891838722837</v>
       </c>
       <c r="I27" t="n">
-        <v>0.134908870254863</v>
+        <v>0.346132654704984</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" t="n">
-        <v>3406964482.73553</v>
+        <v>1791411520.83667</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
       </c>
       <c r="E28" t="n">
-        <v>51044144755.8797</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0667454513936799</v>
+        <v>0.0526728979538275</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H28" t="n">
-        <v>0.201706405610277</v>
+        <v>0.161136441801113</v>
       </c>
       <c r="I28" t="n">
-        <v>0.168333679913437</v>
+        <v>0.134799992824199</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" t="n">
-        <v>3496253828.76753</v>
+        <v>249086331</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>20</v>
       </c>
       <c r="E29" t="n">
-        <v>57649183603.4797</v>
+        <v>7618629943</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0606470657557846</v>
+        <v>0.0326943732486785</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H29" t="n">
-        <v>0.219028171444258</v>
+        <v>0.151256056879202</v>
       </c>
       <c r="I29" t="n">
-        <v>0.188704638566366</v>
+        <v>0.134908870254863</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" t="n">
-        <v>149.231345686853</v>
+        <v>3406964482.73553</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E30" t="n">
-        <v>1613.7765720005</v>
+        <v>51044144755.8797</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0924733623452351</v>
+        <v>0.0667454513936799</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H30" t="n">
-        <v>0.170055101940468</v>
+        <v>0.201706405610277</v>
       </c>
       <c r="I30" t="n">
-        <v>0.12381842076785</v>
+        <v>0.168333679913437</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31" t="n">
-        <v>215.951656273784</v>
+        <v>3496253828.76753</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E31" t="n">
-        <v>2371.79921725908</v>
+        <v>57649183603.4797</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0910497206940407</v>
+        <v>0.0606470657557846</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H31" t="n">
-        <v>0.229959686096422</v>
+        <v>0.219028171444258</v>
       </c>
       <c r="I31" t="n">
-        <v>0.184434825749401</v>
+        <v>0.188704638566366</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>610480923704.844</v>
+        <v>148.968879981</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
       </c>
       <c r="E32" t="n">
-        <v>1238053003179.45</v>
+        <v>1611.753827743</v>
       </c>
       <c r="F32" t="n">
-        <v>0.493097567016167</v>
+        <v>0.0924265712398566</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H32" t="n">
-        <v>0.680786752345527</v>
+        <v>0.169631290695836</v>
       </c>
       <c r="I32" t="n">
-        <v>0.434237968837444</v>
+        <v>0.123418005075908</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="n">
-        <v>11245656786.8144</v>
+        <v>215.689190598565</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>36521769730.4009</v>
+        <v>2369.77043627992</v>
       </c>
       <c r="F33" t="n">
-        <v>0.307916534982517</v>
+        <v>0.0910169134091973</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H33" t="n">
-        <v>0.483821670921163</v>
+        <v>0.229723157063761</v>
       </c>
       <c r="I33" t="n">
-        <v>0.329863403429905</v>
+        <v>0.184214700359162</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="n">
-        <v>152318292712.496</v>
+        <v>148.968821874</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34" t="n">
-        <v>762579127591.92</v>
+        <v>1607.191308688</v>
       </c>
       <c r="F34" t="n">
-        <v>0.199740967463256</v>
+        <v>0.0926889170372679</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H34" t="n">
-        <v>0.555097300146155</v>
+        <v>0.170112806421401</v>
       </c>
       <c r="I34" t="n">
-        <v>0.455226816414527</v>
+        <v>0.123768347902767</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" t="n">
-        <v>-141224776.32</v>
+        <v>610480923704.844</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E35" t="n">
-        <v>6605038847.6</v>
+        <v>1238053003179.45</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.0213813695238621</v>
+        <v>0.493097567016167</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H35" t="n">
-        <v>0.331510469198975</v>
+        <v>0.680786752345527</v>
       </c>
       <c r="I35" t="n">
-        <v>0.342201153960906</v>
+        <v>0.434237968837444</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>12944620056.7632</v>
+        <v>11245656786.8144</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
       </c>
       <c r="E36" t="n">
-        <v>33711877353.0725</v>
+        <v>36521769730.4009</v>
       </c>
       <c r="F36" t="n">
-        <v>0.383978024160184</v>
+        <v>0.307916534982517</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H36" t="n">
-        <v>0.546421777518265</v>
+        <v>0.483821670921163</v>
       </c>
       <c r="I36" t="n">
-        <v>0.354432765438173</v>
+        <v>0.329863403429905</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>1192863286</v>
+        <v>152318292712.496</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E37" t="n">
-        <v>7618629943</v>
+        <v>762579127591.92</v>
       </c>
       <c r="F37" t="n">
-        <v>0.15657188955555</v>
+        <v>0.199740967463256</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H37" t="n">
-        <v>0.307827946434752</v>
+        <v>0.555097300146155</v>
       </c>
       <c r="I37" t="n">
-        <v>0.229542001656977</v>
+        <v>0.455226816414527</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38" t="n">
-        <v>14251665877.1032</v>
+        <v>-141224776.32</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
       </c>
       <c r="E38" t="n">
-        <v>51044144755.8797</v>
+        <v>6605038847.6</v>
       </c>
       <c r="F38" t="n">
-        <v>0.279202755678683</v>
+        <v>-0.0213813695238621</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H38" t="n">
-        <v>0.48090916128896</v>
+        <v>0.331510469198975</v>
       </c>
       <c r="I38" t="n">
-        <v>0.341307783449618</v>
+        <v>0.342201153960906</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n">
-        <v>14110441100.7832</v>
+        <v>12954041177.6197</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
         <v>20</v>
       </c>
       <c r="E39" t="n">
-        <v>57649183603.4797</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F39" t="n">
-        <v>0.244763936256879</v>
+        <v>0.380887853573569</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H39" t="n">
-        <v>0.463792107701137</v>
+        <v>0.542024295374681</v>
       </c>
       <c r="I39" t="n">
-        <v>0.341410139572698</v>
+        <v>0.351580368587897</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>943.324322096976</v>
+        <v>1192863286</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E40" t="n">
-        <v>1613.7765720005</v>
+        <v>7618629943</v>
       </c>
       <c r="F40" t="n">
-        <v>0.584544563642782</v>
+        <v>0.15657188955555</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H40" t="n">
-        <v>0.75459966558325</v>
+        <v>0.307827946434752</v>
       </c>
       <c r="I40" t="n">
-        <v>0.462327383761859</v>
+        <v>0.229542001656977</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>1091.08619061377</v>
+        <v>14251665877.1032</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E41" t="n">
-        <v>2371.79921725908</v>
+        <v>51044144755.8797</v>
       </c>
       <c r="F41" t="n">
-        <v>0.460024686185141</v>
+        <v>0.279202755678683</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H41" t="n">
-        <v>0.689984372281563</v>
+        <v>0.48090916128896</v>
       </c>
       <c r="I41" t="n">
-        <v>0.459972029188992</v>
+        <v>0.341307783449618</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>352380229527.506</v>
+        <v>14110441100.7832</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E42" t="n">
-        <v>1238053003179.45</v>
+        <v>57649183603.4797</v>
       </c>
       <c r="F42" t="n">
-        <v>0.28462451011593</v>
+        <v>0.244763936256879</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H42" t="n">
-        <v>0.965411262461457</v>
+        <v>0.463792107701137</v>
       </c>
       <c r="I42" t="n">
-        <v>0.823099007403492</v>
+        <v>0.341410139572698</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>17356975844.8493</v>
+        <v>942.860701435</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E43" t="n">
-        <v>36521769730.4009</v>
+        <v>1611.753827743</v>
       </c>
       <c r="F43" t="n">
-        <v>0.475250130893883</v>
+        <v>0.584990514807912</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H43" t="n">
-        <v>0.959071801815046</v>
+        <v>0.754621805503748</v>
       </c>
       <c r="I43" t="n">
-        <v>0.721446736368104</v>
+        <v>0.462126548099792</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>223867120698.016</v>
+        <v>1090.6165331995</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
       </c>
       <c r="E44" t="n">
-        <v>762579127591.92</v>
+        <v>2369.77043627992</v>
       </c>
       <c r="F44" t="n">
-        <v>0.29356575940512</v>
+        <v>0.460220330417976</v>
       </c>
       <c r="G44" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H44" t="n">
-        <v>0.848663059551276</v>
+        <v>0.689943487481737</v>
       </c>
       <c r="I44" t="n">
-        <v>0.701880179848715</v>
+        <v>0.459833322272749</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" t="n">
-        <v>2639496832.16</v>
+        <v>938.298240487</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E45" t="n">
-        <v>6605038847.6</v>
+        <v>1607.191308688</v>
       </c>
       <c r="F45" t="n">
-        <v>0.399618668877184</v>
+        <v>0.583812415743439</v>
       </c>
       <c r="G45" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H45" t="n">
-        <v>0.731129138076159</v>
+        <v>0.75392522216484</v>
       </c>
       <c r="I45" t="n">
-        <v>0.531319803637567</v>
+        <v>0.46201901429312</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B46" t="n">
-        <v>14238811019.293</v>
+        <v>352380229527.506</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E46" t="n">
-        <v>33711877353.0725</v>
+        <v>1238053003179.45</v>
       </c>
       <c r="F46" t="n">
-        <v>0.422367786586506</v>
+        <v>0.28462451011593</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H46" t="n">
-        <v>0.968789564104771</v>
+        <v>0.965411262461457</v>
       </c>
       <c r="I46" t="n">
-        <v>0.757605670811518</v>
+        <v>0.823099007403492</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B47" t="n">
-        <v>3970583353</v>
+        <v>17356975844.8493</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
         <v>20</v>
       </c>
       <c r="E47" t="n">
-        <v>7618629943</v>
+        <v>36521769730.4009</v>
       </c>
       <c r="F47" t="n">
-        <v>0.521167635481255</v>
+        <v>0.475250130893883</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H47" t="n">
-        <v>0.828995581916007</v>
+        <v>0.959071801815046</v>
       </c>
       <c r="I47" t="n">
-        <v>0.568411764175379</v>
+        <v>0.721446736368104</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B48" t="n">
-        <v>23200881646.6394</v>
+        <v>223867120698.016</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E48" t="n">
-        <v>51044144755.8797</v>
+        <v>762579127591.92</v>
       </c>
       <c r="F48" t="n">
-        <v>0.454525817948334</v>
+        <v>0.29356575940512</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H48" t="n">
-        <v>0.935434979237293</v>
+        <v>0.848663059551276</v>
       </c>
       <c r="I48" t="n">
-        <v>0.708172070263126</v>
+        <v>0.701880179848715</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B49" t="n">
-        <v>25840378478.7994</v>
+        <v>2639496832.16</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s">
         <v>20</v>
       </c>
       <c r="E49" t="n">
-        <v>57649183603.4797</v>
+        <v>6605038847.6</v>
       </c>
       <c r="F49" t="n">
-        <v>0.448234942172531</v>
+        <v>0.399618668877184</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H49" t="n">
-        <v>0.912027049873669</v>
+        <v>0.731129138076159</v>
       </c>
       <c r="I49" t="n">
-        <v>0.687909578787403</v>
+        <v>0.531319803637567</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B50" t="n">
-        <v>349.720883370764</v>
+        <v>14522880002.6493</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E50" t="n">
-        <v>1613.7765720005</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F50" t="n">
-        <v>0.21670960493449</v>
+        <v>0.427016443445647</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H50" t="n">
-        <v>0.97130927051774</v>
+        <v>0.969040738820328</v>
       </c>
       <c r="I50" t="n">
-        <v>0.862954468050495</v>
+        <v>0.755532517097505</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B51" t="n">
-        <v>573.58800406878</v>
+        <v>3970583353</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E51" t="n">
-        <v>2371.79921725908</v>
+        <v>7618629943</v>
       </c>
       <c r="F51" t="n">
-        <v>0.241836661339164</v>
+        <v>0.521167635481255</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H51" t="n">
-        <v>0.931821033620727</v>
+        <v>0.828995581916007</v>
       </c>
       <c r="I51" t="n">
-        <v>0.810902702951145</v>
+        <v>0.568411764175379</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B52" t="n">
-        <v>42822690385.7787</v>
+        <v>23200881646.6394</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E52" t="n">
-        <v>1238053003179.45</v>
+        <v>51044144755.8797</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0345887375385428</v>
+        <v>0.454525817948334</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0.935434979237293</v>
       </c>
       <c r="I52" t="n">
-        <v>0.982705631230729</v>
+        <v>0.708172070263126</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B53" t="n">
-        <v>1494770229.59111</v>
+        <v>25840378478.7994</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
         <v>20</v>
       </c>
       <c r="E53" t="n">
-        <v>36521769730.4009</v>
+        <v>57649183603.4797</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0409281981849542</v>
+        <v>0.448234942172531</v>
       </c>
       <c r="G53" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0.912027049873669</v>
       </c>
       <c r="I53" t="n">
-        <v>0.979535900907523</v>
+        <v>0.687909578787403</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B54" t="n">
-        <v>115406392019.819</v>
+        <v>349.226381275</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="E54" t="n">
-        <v>762579127591.92</v>
+        <v>1611.753827743</v>
       </c>
       <c r="F54" t="n">
-        <v>0.151336940448724</v>
+        <v>0.216674764634519</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0.971296570138267</v>
       </c>
       <c r="I54" t="n">
-        <v>0.924331529775638</v>
+        <v>0.862959187821008</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B55" t="n">
-        <v>1775902487.99467</v>
+        <v>573.093501973016</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E55" t="n">
-        <v>6605038847.6</v>
+        <v>2369.77043627992</v>
       </c>
       <c r="F55" t="n">
-        <v>0.268870861923841</v>
+        <v>0.241835028912194</v>
       </c>
       <c r="G55" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0.931778516393931</v>
       </c>
       <c r="I55" t="n">
-        <v>0.865564569038079</v>
+        <v>0.810861001937834</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B56" t="n">
-        <v>1052162387.0359</v>
+        <v>349.226381275</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E56" t="n">
-        <v>33711877353.0725</v>
+        <v>1607.191308688</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0312104358952294</v>
+        <v>0.217289864241541</v>
       </c>
       <c r="G56" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0.971215086406381</v>
       </c>
       <c r="I56" t="n">
-        <v>0.984394782052385</v>
+        <v>0.86257015428561</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B57" t="n">
-        <v>1302819380</v>
+        <v>42822690385.7787</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E57" t="n">
-        <v>7618629943</v>
+        <v>1238053003179.45</v>
       </c>
       <c r="F57" t="n">
-        <v>0.171004418083993</v>
+        <v>0.0345887375385428</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0.914497790958003</v>
+        <v>0.982705631230729</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B58" t="n">
-        <v>3295666265.97798</v>
+        <v>1494770229.59111</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
         <v>20</v>
       </c>
       <c r="E58" t="n">
-        <v>51044144755.8797</v>
+        <v>36521769730.4009</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0645650207627067</v>
+        <v>0.0409281981849542</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0.967717489618647</v>
+        <v>0.979535900907523</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B59" t="n">
-        <v>5071568753.97265</v>
+        <v>115406392019.819</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E59" t="n">
-        <v>57649183603.4797</v>
+        <v>762579127591.92</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0879729501263315</v>
+        <v>0.151336940448724</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0.956013524936834</v>
+        <v>0.924331529775638</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B60" t="n">
-        <v>46.300427072075</v>
+        <v>1775902487.99467</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E60" t="n">
-        <v>1613.7765720005</v>
+        <v>6605038847.6</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0286907294822599</v>
+        <v>0.268870861923841</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.98565463525887</v>
+        <v>0.865564569038079</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B61" t="n">
-        <v>161.706819091894</v>
+        <v>1052928152.96533</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E61" t="n">
-        <v>2371.79921725908</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0681789663792732</v>
+        <v>0.0309592611796716</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.965910516810363</v>
+        <v>0.984520369410164</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1302819380</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" t="n">
+        <v>7618629943</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.171004418083993</v>
+      </c>
+      <c r="G62" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.914497790958003</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3295666265.97798</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" t="n">
+        <v>51044144755.8797</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0645650207627067</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.967717489618647</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5071568753.97265</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" t="n">
+        <v>57649183603.4797</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0879729501263315</v>
+      </c>
+      <c r="G64" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.956013524936834</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" t="n">
+        <v>46.262862949</v>
+      </c>
+      <c r="C65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1611.753827743</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0287034298617324</v>
+      </c>
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.985648285069134</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" t="n">
+        <v>161.669254968819</v>
+      </c>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2369.77043627992</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0682214836060696</v>
+      </c>
+      <c r="G66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.965889258196965</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" t="n">
+        <v>46.262862949</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1607.191308688</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0287849135936193</v>
+      </c>
+      <c r="G67" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.98560754320319</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="top panels" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="lower panels" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Author</t>
   </si>
@@ -24,7 +25,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-20 15:11:36</t>
+    <t xml:space="preserve">2021-10-22 16:56:43</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -63,76 +64,54 @@
     <t xml:space="preserve">Middle East</t>
   </si>
   <si>
-    <t xml:space="preserve">Territorial CO2, fossil and proccess (1970-2019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historical cumulative emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1238 Gt CO2</t>
+    <t xml:space="preserve">Population (2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. Current population and emissions by region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 billion</t>
   </si>
   <si>
     <t xml:space="preserve">Territorial CO2, fossil and proccess (2019)</t>
   </si>
   <si>
-    <t xml:space="preserve">Current population and emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37 Gt CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULUCF CO2 (1850-2019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">763 Gt CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULUCF CO2 (2019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 Gt CO2</t>
+    <t xml:space="preserve">38 GtCO2</t>
   </si>
   <si>
     <t xml:space="preserve">Consumption CO2, fossil only (2018)</t>
   </si>
   <si>
-    <t xml:space="preserve">34 Gt CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population (2019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 billion</t>
+    <t xml:space="preserve">34 GtCO2</t>
   </si>
   <si>
     <t xml:space="preserve">Territorial GHG, excl. LULUCF (2019)</t>
   </si>
   <si>
-    <t xml:space="preserve">51 Gt CO2eq</t>
+    <t xml:space="preserve">52 GtCO2eq</t>
   </si>
   <si>
     <t xml:space="preserve">Territorial GHG, incl. LULUCF (2019)</t>
   </si>
   <si>
-    <t xml:space="preserve">58 Gt CO2eq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Territorial CO2, excl. LULUCF (1750-2019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1612 Gt CO2eq</t>
+    <t xml:space="preserve">58 GtCO2eq</t>
   </si>
   <si>
     <t xml:space="preserve">Territorial CO2, incl. LULUCF (1850-2019)</t>
   </si>
   <si>
-    <t xml:space="preserve">2370 Gt CO2eq</t>
+    <t xml:space="preserve">b. Historical cumulative emissions by region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2411
+GtCO2eq</t>
   </si>
   <si>
     <t xml:space="preserve">Territorial CO2, excl. LULUCF (1850-2019)</t>
   </si>
   <si>
-    <t xml:space="preserve">1607 Gt CO2eq</t>
+    <t xml:space="preserve">1648
+GtCO2eq</t>
   </si>
   <si>
     <t xml:space="preserve">Latin America and Caribbean</t>
@@ -148,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve">Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ldc</t>
   </si>
 </sst>
 </file>
@@ -551,7 +533,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>52297157106.7871</v>
+        <v>256846807</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -560,19 +542,19 @@
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>1238053003179.45</v>
+        <v>7618629943</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0422414524842495</v>
+        <v>0.0337129915643154</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0422414524842495</v>
+        <v>0.0337129915643154</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0211207262421248</v>
+        <v>0.0168564957821577</v>
       </c>
     </row>
     <row r="3">
@@ -586,22 +568,22 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37911369128.0531</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0577670023608112</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="n">
-        <v>36521769730.4009</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0599649514820428</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
       <c r="H3" t="n">
-        <v>0.0599649514820428</v>
+        <v>0.0577670023608112</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0299824757410214</v>
+        <v>0.0288835011804056</v>
       </c>
     </row>
     <row r="4">
@@ -609,28 +591,28 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>1474763302.48533</v>
+        <v>1882897819.93133</v>
       </c>
       <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>34010118873.7897</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0553628708831833</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="n">
-        <v>762579127591.92</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00193391511664154</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
       <c r="H4" t="n">
-        <v>0.00193391511664154</v>
+        <v>0.0553628708831833</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000966957558320771</v>
+        <v>0.0276814354415917</v>
       </c>
     </row>
     <row r="5">
@@ -638,28 +620,28 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>-1530515.088</v>
+        <v>3216534914.61995</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>52485585980.0123</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0612841574417189</v>
+      </c>
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6605038847.6</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.000231719316617816</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" t="n">
-        <v>-0.000231719316617816</v>
+        <v>0.0612841574417189</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.000115859658308908</v>
+        <v>0.0306420787208594</v>
       </c>
     </row>
     <row r="6">
@@ -667,28 +649,28 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>1882897819.93133</v>
+        <v>3215004399.53195</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>57649183603.4797</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0557684289450699</v>
+      </c>
+      <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="n">
-        <v>34010118873.7897</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0553628708831833</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
       <c r="H6" t="n">
-        <v>0.0553628708831833</v>
+        <v>0.0557684289450699</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0276814354415917</v>
+        <v>0.0278842144725349</v>
       </c>
     </row>
     <row r="7">
@@ -696,28 +678,28 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>256846807</v>
+        <v>57.4530710024853</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" t="n">
-        <v>7618629943</v>
+        <v>2410.93684911692</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0337129915643154</v>
+        <v>0.0238301849438857</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0337129915643154</v>
+        <v>0.0238301849438857</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0168564957821577</v>
+        <v>0.0119150924719429</v>
       </c>
     </row>
     <row r="8">
@@ -725,1740 +707,1226 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>3216534914.61995</v>
+        <v>55.9783077</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>51044144755.8797</v>
+        <v>1648.357721525</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0630147675115947</v>
+        <v>0.0339600482158757</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0630147675115947</v>
+        <v>0.0339600482158757</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0315073837557973</v>
+        <v>0.0169800241079378</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>3215004399.53195</v>
+        <v>646430786</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>57649183603.4797</v>
+        <v>7618629943</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0557684289450699</v>
+        <v>0.0848486920662082</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0557684289450699</v>
+        <v>0.118561683630524</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0278842144725349</v>
+        <v>0.0761373375974195</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>55.9783077</v>
+        <v>1770512169.96196</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>1611.753827743</v>
+        <v>37911369128.0531</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0347313012300325</v>
+        <v>0.0467013513540414</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0347313012300325</v>
+        <v>0.104468353714853</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0173656506150162</v>
+        <v>0.0811176780378318</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B11" t="n">
-        <v>57.4530710024853</v>
+        <v>1805960199.78733</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>2369.77043627992</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0242441504556346</v>
+        <v>0.0531006729641019</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0242441504556346</v>
+        <v>0.108463543847285</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0121220752278173</v>
+        <v>0.0819132073652342</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B12" t="n">
-        <v>55.9783077</v>
+        <v>3672431568.80367</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>1607.191308688</v>
+        <v>52485585980.0123</v>
       </c>
       <c r="F12" t="n">
-        <v>0.034829896974553</v>
+        <v>0.0699702880368377</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H12" t="n">
-        <v>0.034829896974553</v>
+        <v>0.131254445478557</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0174149484872765</v>
+        <v>0.0962693014601377</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B13" t="n">
-        <v>60004567655.2182</v>
+        <v>5915537041.625</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>1238053003179.45</v>
+        <v>57649183603.4797</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0484668810633473</v>
+        <v>0.102612676743404</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0907083335475968</v>
+        <v>0.158381105688474</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0664748930159231</v>
+        <v>0.107074767316772</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>1770512169.96196</v>
+        <v>271.248884537539</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>36521769730.4009</v>
+        <v>2410.93684911692</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0484782687978064</v>
+        <v>0.112507668808037</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H14" t="n">
-        <v>0.108443220279849</v>
+        <v>0.136337853751923</v>
       </c>
       <c r="I14" t="n">
-        <v>0.084204085880946</v>
+        <v>0.0800840193479043</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>202792190134.539</v>
+        <v>68.456694403</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E15" t="n">
-        <v>762579127591.92</v>
+        <v>1648.357721525</v>
       </c>
       <c r="F15" t="n">
-        <v>0.26592937414235</v>
+        <v>0.0415302415908037</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H15" t="n">
-        <v>0.267863289258992</v>
+        <v>0.0754902898066794</v>
       </c>
       <c r="I15" t="n">
-        <v>0.134898602187817</v>
+        <v>0.0547251690112776</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>2243105472.82133</v>
+        <v>249086331</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
-        <v>6605038847.6</v>
+        <v>7618629943</v>
       </c>
       <c r="F16" t="n">
-        <v>0.339605190003748</v>
+        <v>0.0326943732486785</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H16" t="n">
-        <v>0.33937347068713</v>
+        <v>0.151256056879202</v>
       </c>
       <c r="I16" t="n">
-        <v>0.169570875685256</v>
+        <v>0.134908870254863</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B17" t="n">
-        <v>1805960199.78733</v>
+        <v>2463828549.26231</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="n">
+        <v>37911369128.0531</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0649891735890689</v>
+      </c>
+      <c r="G17" t="s">
         <v>20</v>
       </c>
-      <c r="E17" t="n">
-        <v>34010118873.7897</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0531006729641019</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
       <c r="H17" t="n">
-        <v>0.108463543847285</v>
+        <v>0.169457527303921</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0819132073652342</v>
+        <v>0.136962940509387</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B18" t="n">
-        <v>646430786</v>
+        <v>1791411520.83667</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>7618629943</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0848486920662082</v>
+        <v>0.0526728979538275</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H18" t="n">
-        <v>0.118561683630524</v>
+        <v>0.161136441801113</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0761373375974195</v>
+        <v>0.134799992824199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B19" t="n">
-        <v>3672431568.80367</v>
+        <v>3406964482.73553</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E19" t="n">
-        <v>51044144755.8797</v>
+        <v>52485585980.0123</v>
       </c>
       <c r="F19" t="n">
-        <v>0.071946186705002</v>
+        <v>0.0649123834500577</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H19" t="n">
-        <v>0.134960954216597</v>
+        <v>0.196166828928614</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0989878608640957</v>
+        <v>0.163710637203585</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B20" t="n">
-        <v>5915537041.625</v>
+        <v>3496253828.76753</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E20" t="n">
         <v>57649183603.4797</v>
       </c>
       <c r="F20" t="n">
-        <v>0.102612676743404</v>
+        <v>0.0606470657557846</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H20" t="n">
-        <v>0.158381105688474</v>
+        <v>0.219028171444258</v>
       </c>
       <c r="I20" t="n">
-        <v>0.107074767316772</v>
+        <v>0.188704638566366</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>68.456694403</v>
+        <v>215.689190598565</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n">
-        <v>1611.753827743</v>
+        <v>2410.93684911692</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0424734182259474</v>
+        <v>0.0894628122165738</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0772047194559799</v>
+        <v>0.225800665968497</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0559680103430062</v>
+        <v>0.18106925986021</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B22" t="n">
-        <v>271.248884537539</v>
+        <v>148.968821874</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E22" t="n">
-        <v>2369.77043627992</v>
+        <v>1648.357721525</v>
       </c>
       <c r="F22" t="n">
-        <v>0.114462093198929</v>
+        <v>0.090374085630017</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H22" t="n">
-        <v>0.138706243654564</v>
+        <v>0.165864375436696</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0814751970550992</v>
+        <v>0.120677332621688</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
-        <v>68.456694403</v>
+        <v>1192863286</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>1607.191308688</v>
+        <v>7618629943</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0425939924095802</v>
+        <v>0.15657188955555</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0774238893841332</v>
+        <v>0.307827946434752</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0561268931793431</v>
+        <v>0.229542001656977</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
-        <v>120067434799.314</v>
+        <v>11245656786.8144</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" t="n">
-        <v>1238053003179.45</v>
+        <v>37911369128.0531</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0969808517817638</v>
+        <v>0.296630194199265</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H24" t="n">
-        <v>0.187689185329361</v>
+        <v>0.466087721503186</v>
       </c>
       <c r="I24" t="n">
-        <v>0.139198759438479</v>
+        <v>0.317772624403554</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>2463828549.26231</v>
+        <v>12954041177.6197</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E25" t="n">
-        <v>36521769730.4009</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0674619156587971</v>
+        <v>0.380887853573569</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H25" t="n">
-        <v>0.175905135938646</v>
+        <v>0.542024295374681</v>
       </c>
       <c r="I25" t="n">
-        <v>0.142174178109248</v>
+        <v>0.351580368587897</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>66720368724.5653</v>
+        <v>14251665877.1032</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>762579127591.92</v>
+        <v>52485585980.0123</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0874930434239075</v>
+        <v>0.271534853064812</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H26" t="n">
-        <v>0.355356332682899</v>
+        <v>0.467701681993427</v>
       </c>
       <c r="I26" t="n">
-        <v>0.311609810970945</v>
+        <v>0.331934255461021</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
-        <v>89289346.032</v>
+        <v>14110441100.7832</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>6605038847.6</v>
+        <v>57649183603.4797</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0135183680357072</v>
+        <v>0.244763936256879</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H27" t="n">
-        <v>0.352891838722837</v>
+        <v>0.463792107701137</v>
       </c>
       <c r="I27" t="n">
-        <v>0.346132654704984</v>
+        <v>0.341410139572698</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>1791411520.83667</v>
+        <v>1090.6165331995</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E28" t="n">
-        <v>34010118873.7897</v>
+        <v>2410.93684911692</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0526728979538275</v>
+        <v>0.452362132006472</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H28" t="n">
-        <v>0.161136441801113</v>
+        <v>0.678162797974969</v>
       </c>
       <c r="I28" t="n">
-        <v>0.134799992824199</v>
+        <v>0.451981731971733</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>249086331</v>
+        <v>938.298240487</v>
       </c>
       <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
         <v>28</v>
       </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
       <c r="E29" t="n">
-        <v>7618629943</v>
+        <v>1648.357721525</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0326943732486785</v>
+        <v>0.569232168621093</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H29" t="n">
-        <v>0.151256056879202</v>
+        <v>0.73509654405779</v>
       </c>
       <c r="I29" t="n">
-        <v>0.134908870254863</v>
+        <v>0.450480459747243</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>3406964482.73553</v>
+        <v>3970583353</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>51044144755.8797</v>
+        <v>7618629943</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0667454513936799</v>
+        <v>0.521167635481255</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H30" t="n">
-        <v>0.201706405610277</v>
+        <v>0.828995581916007</v>
       </c>
       <c r="I30" t="n">
-        <v>0.168333679913437</v>
+        <v>0.568411764175379</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v>3496253828.76753</v>
+        <v>17356975844.8493</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="n">
+        <v>37911369128.0531</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.457830361816337</v>
+      </c>
+      <c r="G31" t="s">
         <v>20</v>
       </c>
-      <c r="E31" t="n">
-        <v>57649183603.4797</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.0606470657557846</v>
-      </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
       <c r="H31" t="n">
-        <v>0.219028171444258</v>
+        <v>0.923918083319523</v>
       </c>
       <c r="I31" t="n">
-        <v>0.188704638566366</v>
+        <v>0.695002902411354</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n">
-        <v>148.968879981</v>
+        <v>14522880002.6493</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
       </c>
       <c r="E32" t="n">
-        <v>1611.753827743</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0924265712398566</v>
+        <v>0.427016443445647</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H32" t="n">
-        <v>0.169631290695836</v>
+        <v>0.969040738820328</v>
       </c>
       <c r="I32" t="n">
-        <v>0.123418005075908</v>
+        <v>0.755532517097505</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>215.689190598565</v>
+        <v>23200881646.6394</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>2369.77043627992</v>
+        <v>52485585980.0123</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0910169134091973</v>
+        <v>0.442042919278348</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H33" t="n">
-        <v>0.229723157063761</v>
+        <v>0.909744601271775</v>
       </c>
       <c r="I33" t="n">
-        <v>0.184214700359162</v>
+        <v>0.688723141632601</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>148.968821874</v>
+        <v>25840378478.7994</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34" t="n">
-        <v>1607.191308688</v>
+        <v>57649183603.4797</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0926889170372679</v>
+        <v>0.448234942172531</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H34" t="n">
-        <v>0.170112806421401</v>
+        <v>0.912027049873669</v>
       </c>
       <c r="I34" t="n">
-        <v>0.123768347902767</v>
+        <v>0.687909578787403</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>610480923704.844</v>
+        <v>573.093501973016</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E35" t="n">
-        <v>1238053003179.45</v>
+        <v>2410.93684911692</v>
       </c>
       <c r="F35" t="n">
-        <v>0.493097567016167</v>
+        <v>0.237705729282345</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H35" t="n">
-        <v>0.680786752345527</v>
+        <v>0.915868527257313</v>
       </c>
       <c r="I35" t="n">
-        <v>0.434237968837444</v>
+        <v>0.797015662616141</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>11245656786.8144</v>
+        <v>349.226381275</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E36" t="n">
-        <v>36521769730.4009</v>
+        <v>1648.357721525</v>
       </c>
       <c r="F36" t="n">
-        <v>0.307916534982517</v>
+        <v>0.211863224053034</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H36" t="n">
-        <v>0.483821670921163</v>
+        <v>0.946959768110824</v>
       </c>
       <c r="I36" t="n">
-        <v>0.329863403429905</v>
+        <v>0.841028156084307</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>152318292712.496</v>
+        <v>1302819380</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
       </c>
       <c r="E37" t="n">
-        <v>762579127591.92</v>
+        <v>7618629943</v>
       </c>
       <c r="F37" t="n">
-        <v>0.199740967463256</v>
+        <v>0.171004418083993</v>
       </c>
       <c r="G37" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H37" t="n">
-        <v>0.555097300146155</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.455226816414527</v>
+        <v>0.914497790958003</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-141224776.32</v>
+        <v>1494770229.59111</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="n">
+        <v>37911369128.0531</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0394280202474943</v>
+      </c>
+      <c r="G38" t="s">
         <v>20</v>
       </c>
-      <c r="E38" t="n">
-        <v>6605038847.6</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-0.0213813695238621</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
       <c r="H38" t="n">
-        <v>0.331510469198975</v>
+        <v>0.963346103567017</v>
       </c>
       <c r="I38" t="n">
-        <v>0.342201153960906</v>
+        <v>0.94363209344327</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B39" t="n">
-        <v>12954041177.6197</v>
+        <v>1052928152.96533</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E39" t="n">
         <v>34010118873.7897</v>
       </c>
       <c r="F39" t="n">
-        <v>0.380887853573569</v>
+        <v>0.0309592611796716</v>
       </c>
       <c r="G39" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H39" t="n">
-        <v>0.542024295374681</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.351580368587897</v>
+        <v>0.984520369410164</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B40" t="n">
-        <v>1192863286</v>
+        <v>3295666265.97798</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E40" t="n">
-        <v>7618629943</v>
+        <v>52485585980.0123</v>
       </c>
       <c r="F40" t="n">
-        <v>0.15657188955555</v>
+        <v>0.0627918352142062</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H40" t="n">
-        <v>0.307827946434752</v>
+        <v>0.972536436485981</v>
       </c>
       <c r="I40" t="n">
-        <v>0.229542001656977</v>
+        <v>0.941140518878878</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B41" t="n">
-        <v>14251665877.1032</v>
+        <v>5071568753.97265</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E41" t="n">
-        <v>51044144755.8797</v>
+        <v>57649183603.4797</v>
       </c>
       <c r="F41" t="n">
-        <v>0.279202755678683</v>
+        <v>0.0879729501263315</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H41" t="n">
-        <v>0.48090916128896</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0.341307783449618</v>
+        <v>0.956013524936834</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B42" t="n">
-        <v>14110441100.7832</v>
+        <v>161.669254968819</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E42" t="n">
-        <v>57649183603.4797</v>
+        <v>2410.93684911692</v>
       </c>
       <c r="F42" t="n">
-        <v>0.244763936256879</v>
+        <v>0.0670566112206694</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H42" t="n">
-        <v>0.463792107701137</v>
+        <v>0.982925138477983</v>
       </c>
       <c r="I42" t="n">
-        <v>0.341410139572698</v>
+        <v>0.949396832867648</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B43" t="n">
-        <v>942.860701435</v>
+        <v>46.262862949</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E43" t="n">
-        <v>1611.753827743</v>
+        <v>1648.357721525</v>
       </c>
       <c r="F43" t="n">
-        <v>0.584990514807912</v>
+        <v>0.0280660334494622</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H43" t="n">
-        <v>0.754621805503748</v>
+        <v>0.975025801560286</v>
       </c>
       <c r="I43" t="n">
-        <v>0.462126548099792</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1090.6165331995</v>
-      </c>
-      <c r="C44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2369.77043627992</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.460220330417976</v>
-      </c>
-      <c r="G44" t="s">
+        <v>0.960992784835555</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="H44" t="n">
-        <v>0.689943487481737</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.459833322272749</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" t="n">
-        <v>938.298240487</v>
-      </c>
-      <c r="C45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1607.191308688</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.583812415743439</v>
-      </c>
-      <c r="G45" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.75392522216484</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.46201901429312</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" t="n">
-        <v>352380229527.506</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B2" t="n">
+        <v>1029891751</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1238053003179.45</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.28462451011593</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7618629943</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.13518070292235</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="H46" t="n">
-        <v>0.965411262461457</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.823099007403492</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" t="n">
-        <v>17356975844.8493</v>
-      </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="n">
+        <v>416576733.954922</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37911369128.0531</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0109881743533939</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="E47" t="n">
-        <v>36521769730.4009</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.475250130893883</v>
-      </c>
-      <c r="G47" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="n">
+        <v>299956840.128</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="H47" t="n">
-        <v>0.959071801815046</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.721446736368104</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" t="n">
-        <v>223867120698.016</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>34010118873.7897</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.00881963515744032</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="D48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" t="n">
-        <v>762579127591.92</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.29356575940512</v>
-      </c>
-      <c r="G48" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1724571434.33839</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="H48" t="n">
-        <v>0.848663059551276</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.701880179848715</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" t="n">
-        <v>2639496832.16</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>52485585980.0123</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0328580009565892</v>
+      </c>
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="D49" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" t="n">
-        <v>6605038847.6</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.399618668877184</v>
-      </c>
-      <c r="G49" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6.943086037</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1648.357721525</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.00421212334333382</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="H49" t="n">
-        <v>0.731129138076159</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.531319803637567</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" t="n">
-        <v>14522880002.6493</v>
-      </c>
-      <c r="C50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" t="n">
-        <v>34010118873.7897</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.427016443445647</v>
-      </c>
-      <c r="G50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.969040738820328</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.755532517097505</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" t="n">
-        <v>3970583353</v>
-      </c>
-      <c r="C51" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" t="n">
-        <v>7618629943</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.521167635481255</v>
-      </c>
-      <c r="G51" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.828995581916007</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.568411764175379</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" t="n">
-        <v>23200881646.6394</v>
-      </c>
-      <c r="C52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" t="n">
-        <v>51044144755.8797</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.454525817948334</v>
-      </c>
-      <c r="G52" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.935434979237293</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.708172070263126</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" t="n">
-        <v>25840378478.7994</v>
-      </c>
-      <c r="C53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" t="n">
-        <v>57649183603.4797</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.448234942172531</v>
-      </c>
-      <c r="G53" t="s">
-        <v>33</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.912027049873669</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.687909578787403</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" t="n">
-        <v>349.226381275</v>
-      </c>
-      <c r="C54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1611.753827743</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.216674764634519</v>
-      </c>
-      <c r="G54" t="s">
-        <v>35</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.971296570138267</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.862959187821008</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" t="n">
-        <v>573.093501973016</v>
-      </c>
-      <c r="C55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" t="n">
-        <v>2369.77043627992</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.241835028912194</v>
-      </c>
-      <c r="G55" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.931778516393931</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.810861001937834</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" t="n">
-        <v>349.226381275</v>
-      </c>
-      <c r="C56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1607.191308688</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.217289864241541</v>
-      </c>
-      <c r="G56" t="s">
-        <v>39</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.971215086406381</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.86257015428561</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" t="n">
-        <v>42822690385.7787</v>
-      </c>
-      <c r="C57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1238053003179.45</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.0345887375385428</v>
-      </c>
-      <c r="G57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.982705631230729</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1494770229.59111</v>
-      </c>
-      <c r="C58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" t="n">
-        <v>36521769730.4009</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.0409281981849542</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.979535900907523</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" t="n">
-        <v>115406392019.819</v>
-      </c>
-      <c r="C59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" t="n">
-        <v>762579127591.92</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.151336940448724</v>
-      </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.924331529775638</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1775902487.99467</v>
-      </c>
-      <c r="C60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" t="n">
-        <v>6605038847.6</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.268870861923841</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.865564569038079</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1052928152.96533</v>
-      </c>
-      <c r="C61" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" t="n">
-        <v>34010118873.7897</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.0309592611796716</v>
-      </c>
-      <c r="G61" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.984520369410164</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1302819380</v>
-      </c>
-      <c r="C62" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" t="n">
-        <v>7618629943</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.171004418083993</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.914497790958003</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63" t="n">
-        <v>3295666265.97798</v>
-      </c>
-      <c r="C63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" t="n">
-        <v>51044144755.8797</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.0645650207627067</v>
-      </c>
-      <c r="G63" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.967717489618647</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64" t="n">
-        <v>5071568753.97265</v>
-      </c>
-      <c r="C64" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" t="n">
-        <v>57649183603.4797</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.0879729501263315</v>
-      </c>
-      <c r="G64" t="s">
-        <v>33</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.956013524936834</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" t="n">
-        <v>46.262862949</v>
-      </c>
-      <c r="C65" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1611.753827743</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.0287034298617324</v>
-      </c>
-      <c r="G65" t="s">
-        <v>35</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.985648285069134</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" t="n">
-        <v>161.669254968819</v>
-      </c>
-      <c r="C66" t="s">
-        <v>36</v>
-      </c>
-      <c r="D66" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" t="n">
-        <v>2369.77043627992</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.0682214836060696</v>
-      </c>
-      <c r="G66" t="s">
-        <v>37</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.965889258196965</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" t="n">
-        <v>46.262862949</v>
-      </c>
-      <c r="C67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D67" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1607.191308688</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.0287849135936193</v>
-      </c>
-      <c r="G67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.98560754320319</v>
-      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-22 16:56:43</t>
+    <t xml:space="preserve">2021-11-05 15:49:12</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -73,31 +73,31 @@
     <t xml:space="preserve">8 billion</t>
   </si>
   <si>
-    <t xml:space="preserve">Territorial CO2, fossil and proccess (2019)</t>
+    <t xml:space="preserve">Production CO2 FFI (2019)</t>
   </si>
   <si>
     <t xml:space="preserve">38 GtCO2</t>
   </si>
   <si>
-    <t xml:space="preserve">Consumption CO2, fossil only (2018)</t>
+    <t xml:space="preserve">Consumption CO2 FFI (2018)</t>
   </si>
   <si>
     <t xml:space="preserve">34 GtCO2</t>
   </si>
   <si>
-    <t xml:space="preserve">Territorial GHG, excl. LULUCF (2019)</t>
+    <t xml:space="preserve">Production GHG, excl. LULUCF (2019)</t>
   </si>
   <si>
     <t xml:space="preserve">52 GtCO2eq</t>
   </si>
   <si>
-    <t xml:space="preserve">Territorial GHG, incl. LULUCF (2019)</t>
+    <t xml:space="preserve">Production GHG, incl. LULUCF (2019)</t>
   </si>
   <si>
     <t xml:space="preserve">58 GtCO2eq</t>
   </si>
   <si>
-    <t xml:space="preserve">Territorial CO2, incl. LULUCF (1850-2019)</t>
+    <t xml:space="preserve">Production CO2, incl. LULUCF (1850-2019)</t>
   </si>
   <si>
     <t xml:space="preserve">b. Historical cumulative emissions by region</t>
@@ -107,7 +107,7 @@
 GtCO2eq</t>
   </si>
   <si>
-    <t xml:space="preserve">Territorial CO2, excl. LULUCF (1850-2019)</t>
+    <t xml:space="preserve">Production CO2, excl. LULUCF (1850-2019)</t>
   </si>
   <si>
     <t xml:space="preserve">1648
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -454,10 +454,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -492,10 +492,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -1753,10 +1753,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>

--- a/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-05 15:49:12</t>
+    <t xml:space="preserve">2022-02-07 11:57:55</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -902,7 +902,7 @@
         <v>0.136337853751923</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0800840193479043</v>
+        <v>0.0800840193479042</v>
       </c>
     </row>
     <row r="15">
@@ -1096,7 +1096,7 @@
         <v>2410.93684911692</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0894628122165738</v>
+        <v>0.0894628122165739</v>
       </c>
       <c r="G21" t="s">
         <v>29</v>
@@ -1705,7 +1705,7 @@
         <v>2410.93684911692</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0670566112206694</v>
+        <v>0.0670566112206693</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>

--- a/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-02-07 11:57:55</t>
+    <t xml:space="preserve">2022-03-25 22:57:20</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -542,19 +542,19 @@
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>7618629943</v>
+        <v>7628656811</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0337129915643154</v>
+        <v>0.0336686802622507</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0337129915643154</v>
+        <v>0.0336686802622507</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0168564957821577</v>
+        <v>0.0168343401311253</v>
       </c>
     </row>
     <row r="3">
@@ -658,19 +658,19 @@
         <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>57649183603.4797</v>
+        <v>57649116432.5891</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0557684289450699</v>
+        <v>0.0557684939246442</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0557684289450699</v>
+        <v>0.0557684939246442</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0278842144725349</v>
+        <v>0.0278842469623221</v>
       </c>
     </row>
     <row r="7">
@@ -678,7 +678,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>57.4530710024853</v>
+        <v>57.453073445152</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -687,19 +687,19 @@
         <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>2410.93684911692</v>
+        <v>2410.9373669647</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0238301849438857</v>
+        <v>0.0238301808385358</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0238301849438857</v>
+        <v>0.0238301808385358</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0119150924719429</v>
+        <v>0.0119150904192679</v>
       </c>
     </row>
     <row r="8">
@@ -745,19 +745,19 @@
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>7618629943</v>
+        <v>7628656811</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0848486920662082</v>
+        <v>0.0847371695981776</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
       </c>
       <c r="H9" t="n">
-        <v>0.118561683630524</v>
+        <v>0.118405849860428</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0761373375974195</v>
+        <v>0.0760372650613395</v>
       </c>
     </row>
     <row r="10">
@@ -777,13 +777,13 @@
         <v>37911369128.0531</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0467013513540414</v>
+        <v>0.0467013513540413</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>0.104468353714853</v>
+        <v>0.104468353714852</v>
       </c>
       <c r="I10" t="n">
         <v>0.0811176780378318</v>
@@ -852,7 +852,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="n">
-        <v>5915537041.625</v>
+        <v>5915517500.29167</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -861,19 +861,19 @@
         <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>57649183603.4797</v>
+        <v>57649116432.5891</v>
       </c>
       <c r="F13" t="n">
-        <v>0.102612676743404</v>
+        <v>0.10261245733417</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
       </c>
       <c r="H13" t="n">
-        <v>0.158381105688474</v>
+        <v>0.158380951258815</v>
       </c>
       <c r="I13" t="n">
-        <v>0.107074767316772</v>
+        <v>0.107074722591729</v>
       </c>
     </row>
     <row r="14">
@@ -881,7 +881,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>271.248884537539</v>
+        <v>271.249500089539</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -890,19 +890,19 @@
         <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>2410.93684911692</v>
+        <v>2410.9373669647</v>
       </c>
       <c r="F14" t="n">
-        <v>0.112507668808037</v>
+        <v>0.112507899958859</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
       </c>
       <c r="H14" t="n">
-        <v>0.136337853751923</v>
+        <v>0.136338080797395</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0800840193479042</v>
+        <v>0.0800841308179652</v>
       </c>
     </row>
     <row r="15">
@@ -939,7 +939,7 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>249086331</v>
+        <v>291392708</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -948,19 +948,19 @@
         <v>17</v>
       </c>
       <c r="E16" t="n">
-        <v>7618629943</v>
+        <v>7628656811</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0326943732486785</v>
+        <v>0.0381971184730491</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
       <c r="H16" t="n">
-        <v>0.151256056879202</v>
+        <v>0.156602968333477</v>
       </c>
       <c r="I16" t="n">
-        <v>0.134908870254863</v>
+        <v>0.137504409096953</v>
       </c>
     </row>
     <row r="17">
@@ -968,7 +968,7 @@
         <v>33</v>
       </c>
       <c r="B17" t="n">
-        <v>2463828549.26231</v>
+        <v>2651997062.2588</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -980,16 +980,16 @@
         <v>37911369128.0531</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0649891735890689</v>
+        <v>0.0699525531061977</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
       </c>
       <c r="H17" t="n">
-        <v>0.169457527303921</v>
+        <v>0.17442090682105</v>
       </c>
       <c r="I17" t="n">
-        <v>0.136962940509387</v>
+        <v>0.139444630267951</v>
       </c>
     </row>
     <row r="18">
@@ -997,7 +997,7 @@
         <v>33</v>
       </c>
       <c r="B18" t="n">
-        <v>1791411520.83667</v>
+        <v>2011735598.65667</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -1009,16 +1009,16 @@
         <v>34010118873.7897</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0526728979538275</v>
+        <v>0.0591510898895163</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
       </c>
       <c r="H18" t="n">
-        <v>0.161136441801113</v>
+        <v>0.167614633736801</v>
       </c>
       <c r="I18" t="n">
-        <v>0.134799992824199</v>
+        <v>0.138039088792043</v>
       </c>
     </row>
     <row r="19">
@@ -1026,7 +1026,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="n">
-        <v>3406964482.73553</v>
+        <v>3667927460.2773</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -1038,16 +1038,16 @@
         <v>52485585980.0123</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0649123834500577</v>
+        <v>0.0698844719324298</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
       </c>
       <c r="H19" t="n">
-        <v>0.196166828928614</v>
+        <v>0.201138917410986</v>
       </c>
       <c r="I19" t="n">
-        <v>0.163710637203585</v>
+        <v>0.166196681444772</v>
       </c>
     </row>
     <row r="20">
@@ -1055,7 +1055,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="n">
-        <v>3496253828.76753</v>
+        <v>3755717144.54397</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -1064,19 +1064,19 @@
         <v>17</v>
       </c>
       <c r="E20" t="n">
-        <v>57649183603.4797</v>
+        <v>57649116432.5891</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0606470657557846</v>
+        <v>0.0651478700273863</v>
       </c>
       <c r="G20" t="s">
         <v>26</v>
       </c>
       <c r="H20" t="n">
-        <v>0.219028171444258</v>
+        <v>0.223528821286201</v>
       </c>
       <c r="I20" t="n">
-        <v>0.188704638566366</v>
+        <v>0.190954886272508</v>
       </c>
     </row>
     <row r="21">
@@ -1084,7 +1084,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>215.689190598565</v>
+        <v>252.478739148885</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -1093,19 +1093,19 @@
         <v>28</v>
       </c>
       <c r="E21" t="n">
-        <v>2410.93684911692</v>
+        <v>2410.9373669647</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0894628122165739</v>
+        <v>0.104722230700978</v>
       </c>
       <c r="G21" t="s">
         <v>29</v>
       </c>
       <c r="H21" t="n">
-        <v>0.225800665968497</v>
+        <v>0.241060311498373</v>
       </c>
       <c r="I21" t="n">
-        <v>0.18106925986021</v>
+        <v>0.188699196147884</v>
       </c>
     </row>
     <row r="22">
@@ -1113,7 +1113,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="n">
-        <v>148.968821874</v>
+        <v>177.889454544</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
@@ -1125,16 +1125,16 @@
         <v>1648.357721525</v>
       </c>
       <c r="F22" t="n">
-        <v>0.090374085630017</v>
+        <v>0.107919204806723</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
       </c>
       <c r="H22" t="n">
-        <v>0.165864375436696</v>
+        <v>0.183409494613403</v>
       </c>
       <c r="I22" t="n">
-        <v>0.120677332621688</v>
+        <v>0.129449892210041</v>
       </c>
     </row>
     <row r="23">
@@ -1142,7 +1142,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="n">
-        <v>1192863286</v>
+        <v>1150553777</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -1151,19 +1151,19 @@
         <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>7618629943</v>
+        <v>7628656811</v>
       </c>
       <c r="F23" t="n">
-        <v>0.15657188955555</v>
+        <v>0.150819968115616</v>
       </c>
       <c r="G23" t="s">
         <v>18</v>
       </c>
       <c r="H23" t="n">
-        <v>0.307827946434752</v>
+        <v>0.307422936449094</v>
       </c>
       <c r="I23" t="n">
-        <v>0.229542001656977</v>
+        <v>0.232012952391286</v>
       </c>
     </row>
     <row r="24">
@@ -1171,7 +1171,7 @@
         <v>34</v>
       </c>
       <c r="B24" t="n">
-        <v>11245656786.8144</v>
+        <v>11057488273.8179</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
@@ -1183,7 +1183,7 @@
         <v>37911369128.0531</v>
       </c>
       <c r="F24" t="n">
-        <v>0.296630194199265</v>
+        <v>0.291666814682136</v>
       </c>
       <c r="G24" t="s">
         <v>20</v>
@@ -1192,7 +1192,7 @@
         <v>0.466087721503186</v>
       </c>
       <c r="I24" t="n">
-        <v>0.317772624403554</v>
+        <v>0.320254314162118</v>
       </c>
     </row>
     <row r="25">
@@ -1200,7 +1200,7 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>12954041177.6197</v>
+        <v>12733717099.7997</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
@@ -1212,7 +1212,7 @@
         <v>34010118873.7897</v>
       </c>
       <c r="F25" t="n">
-        <v>0.380887853573569</v>
+        <v>0.37440966163788</v>
       </c>
       <c r="G25" t="s">
         <v>22</v>
@@ -1221,7 +1221,7 @@
         <v>0.542024295374681</v>
       </c>
       <c r="I25" t="n">
-        <v>0.351580368587897</v>
+        <v>0.354819464555741</v>
       </c>
     </row>
     <row r="26">
@@ -1229,7 +1229,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>14251665877.1032</v>
+        <v>13990702899.5614</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -1241,7 +1241,7 @@
         <v>52485585980.0123</v>
       </c>
       <c r="F26" t="n">
-        <v>0.271534853064812</v>
+        <v>0.26656276458244</v>
       </c>
       <c r="G26" t="s">
         <v>24</v>
@@ -1250,7 +1250,7 @@
         <v>0.467701681993427</v>
       </c>
       <c r="I26" t="n">
-        <v>0.331934255461021</v>
+        <v>0.334420299702207</v>
       </c>
     </row>
     <row r="27">
@@ -1258,7 +1258,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="n">
-        <v>14110441100.7832</v>
+        <v>13850976566.1161</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
@@ -1267,19 +1267,19 @@
         <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>57649183603.4797</v>
+        <v>57649116432.5891</v>
       </c>
       <c r="F27" t="n">
-        <v>0.244763936256879</v>
+        <v>0.240263466697057</v>
       </c>
       <c r="G27" t="s">
         <v>26</v>
       </c>
       <c r="H27" t="n">
-        <v>0.463792107701137</v>
+        <v>0.463792287983258</v>
       </c>
       <c r="I27" t="n">
-        <v>0.341410139572698</v>
+        <v>0.343660554634729</v>
       </c>
     </row>
     <row r="28">
@@ -1287,7 +1287,7 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>1090.6165331995</v>
+        <v>1053.82759409695</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -1296,19 +1296,19 @@
         <v>28</v>
       </c>
       <c r="E28" t="n">
-        <v>2410.93684911692</v>
+        <v>2410.9373669647</v>
       </c>
       <c r="F28" t="n">
-        <v>0.452362132006472</v>
+        <v>0.437102849927492</v>
       </c>
       <c r="G28" t="s">
         <v>29</v>
       </c>
       <c r="H28" t="n">
-        <v>0.678162797974969</v>
+        <v>0.678163161425865</v>
       </c>
       <c r="I28" t="n">
-        <v>0.451981731971733</v>
+        <v>0.459611736462119</v>
       </c>
     </row>
     <row r="29">
@@ -1316,7 +1316,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>938.298240487</v>
+        <v>909.377607817</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -1328,7 +1328,7 @@
         <v>1648.357721525</v>
       </c>
       <c r="F29" t="n">
-        <v>0.569232168621093</v>
+        <v>0.551687049444387</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -1337,7 +1337,7 @@
         <v>0.73509654405779</v>
       </c>
       <c r="I29" t="n">
-        <v>0.450480459747243</v>
+        <v>0.459253019335596</v>
       </c>
     </row>
     <row r="30">
@@ -1345,7 +1345,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>3970583353</v>
+        <v>3980613353</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -1354,19 +1354,19 @@
         <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>7618629943</v>
+        <v>7628656811</v>
       </c>
       <c r="F30" t="n">
-        <v>0.521167635481255</v>
+        <v>0.521797408327535</v>
       </c>
       <c r="G30" t="s">
         <v>18</v>
       </c>
       <c r="H30" t="n">
-        <v>0.828995581916007</v>
+        <v>0.829220344776629</v>
       </c>
       <c r="I30" t="n">
-        <v>0.568411764175379</v>
+        <v>0.568321640612862</v>
       </c>
     </row>
     <row r="31">
@@ -1461,7 +1461,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>25840378478.7994</v>
+        <v>25840361380.1327</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
@@ -1470,19 +1470,19 @@
         <v>17</v>
       </c>
       <c r="E34" t="n">
-        <v>57649183603.4797</v>
+        <v>57649116432.5891</v>
       </c>
       <c r="F34" t="n">
-        <v>0.448234942172531</v>
+        <v>0.448235167842488</v>
       </c>
       <c r="G34" t="s">
         <v>26</v>
       </c>
       <c r="H34" t="n">
-        <v>0.912027049873669</v>
+        <v>0.912027455825746</v>
       </c>
       <c r="I34" t="n">
-        <v>0.687909578787403</v>
+        <v>0.687909871904502</v>
       </c>
     </row>
     <row r="35">
@@ -1490,7 +1490,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>573.093501973016</v>
+        <v>573.092842453016</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -1499,19 +1499,19 @@
         <v>28</v>
       </c>
       <c r="E35" t="n">
-        <v>2410.93684911692</v>
+        <v>2410.9373669647</v>
       </c>
       <c r="F35" t="n">
-        <v>0.237705729282345</v>
+        <v>0.237705404671928</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
       </c>
       <c r="H35" t="n">
-        <v>0.915868527257313</v>
+        <v>0.915868566097793</v>
       </c>
       <c r="I35" t="n">
-        <v>0.797015662616141</v>
+        <v>0.797015863761829</v>
       </c>
     </row>
     <row r="36">
@@ -1557,10 +1557,10 @@
         <v>17</v>
       </c>
       <c r="E37" t="n">
-        <v>7618629943</v>
+        <v>7628656811</v>
       </c>
       <c r="F37" t="n">
-        <v>0.171004418083993</v>
+        <v>0.170779655223371</v>
       </c>
       <c r="G37" t="s">
         <v>18</v>
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.914497790958003</v>
+        <v>0.914610172388315</v>
       </c>
     </row>
     <row r="38">
@@ -1664,7 +1664,7 @@
         <v>36</v>
       </c>
       <c r="B41" t="n">
-        <v>5071568753.97265</v>
+        <v>5071539441.97265</v>
       </c>
       <c r="C41" t="s">
         <v>25</v>
@@ -1673,10 +1673,10 @@
         <v>17</v>
       </c>
       <c r="E41" t="n">
-        <v>57649183603.4797</v>
+        <v>57649116432.5891</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0879729501263315</v>
+        <v>0.0879725441742539</v>
       </c>
       <c r="G41" t="s">
         <v>26</v>
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0.956013524936834</v>
+        <v>0.956013727912873</v>
       </c>
     </row>
     <row r="42">
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B42" t="n">
-        <v>161.669254968819</v>
+        <v>161.669204894152</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -1702,19 +1702,19 @@
         <v>28</v>
       </c>
       <c r="E42" t="n">
-        <v>2410.93684911692</v>
+        <v>2410.9373669647</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0670566112206693</v>
+        <v>0.0670565760477175</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
       </c>
       <c r="H42" t="n">
-        <v>0.982925138477983</v>
+        <v>0.98292514214551</v>
       </c>
       <c r="I42" t="n">
-        <v>0.949396832867648</v>
+        <v>0.949396854121651</v>
       </c>
     </row>
     <row r="43">
@@ -1797,10 +1797,10 @@
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>7618629943</v>
+        <v>7628656811</v>
       </c>
       <c r="F2" t="n">
-        <v>0.13518070292235</v>
+        <v>0.135003025632896</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>

--- a/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Author</t>
   </si>
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-03-25 22:57:20</t>
+    <t xml:space="preserve">2022-04-01 14:55:42</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">https://github.com/mcc-apsis/AR6-Emissions-trends-and-drivers/blob/master/R/Analysis%20and%20figures/equity_perspectives.Rmd</t>
   </si>
   <si>
-    <t xml:space="preserve">region_ar6_6</t>
+    <t xml:space="preserve">region_ar6_10</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">position</t>
   </si>
   <si>
-    <t xml:space="preserve">Middle East</t>
+    <t xml:space="preserve">Southern Asia</t>
   </si>
   <si>
     <t xml:space="preserve">Population (2019)</t>
@@ -114,16 +114,31 @@
 GtCO2eq</t>
   </si>
   <si>
+    <t xml:space="preserve">South-East Asia and Pacific</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle East</t>
+  </si>
+  <si>
     <t xml:space="preserve">Latin America and Caribbean</t>
   </si>
   <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eastern Europe and West-Central Asia</t>
   </si>
   <si>
-    <t xml:space="preserve">Developed Countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asia and developing Pacific</t>
+    <t xml:space="preserve">Eastern Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia, Japan, New Zealand</t>
   </si>
   <si>
     <t xml:space="preserve">Africa</t>
@@ -533,7 +548,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>256846807</v>
+        <v>1835776769</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -542,19 +557,19 @@
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>7628656811</v>
+        <v>7604833366</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0336686802622507</v>
+        <v>0.241396054410274</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0336686802622507</v>
+        <v>0.241396054410274</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0168343401311253</v>
+        <v>0.120698027205137</v>
       </c>
     </row>
     <row r="3">
@@ -562,7 +577,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>2190026149.92183</v>
+        <v>2950858907.09236</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -574,16 +589,16 @@
         <v>37911369128.0531</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0577670023608112</v>
+        <v>0.0778357251389486</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0577670023608112</v>
+        <v>0.0778357251389486</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0288835011804056</v>
+        <v>0.0389178625694743</v>
       </c>
     </row>
     <row r="4">
@@ -591,7 +606,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>1882897819.93133</v>
+        <v>2772432823.16367</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -603,16 +618,16 @@
         <v>34010118873.7897</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0553628708831833</v>
+        <v>0.0815178810004183</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0553628708831833</v>
+        <v>0.0815178810004183</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0276814354415917</v>
+        <v>0.0407589405002092</v>
       </c>
     </row>
     <row r="5">
@@ -620,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>3216534914.61995</v>
+        <v>4660843983.84373</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -632,16 +647,16 @@
         <v>52485585980.0123</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0612841574417189</v>
+        <v>0.0888023615782566</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0612841574417189</v>
+        <v>0.0888023615782566</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0306420787208594</v>
+        <v>0.0444011807891283</v>
       </c>
     </row>
     <row r="6">
@@ -649,7 +664,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>3215004399.53195</v>
+        <v>4839947799.16639</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -661,16 +676,16 @@
         <v>57649116432.5891</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0557684939246442</v>
+        <v>0.0839552815146074</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0557684939246442</v>
+        <v>0.0839552815146074</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0278842469623221</v>
+        <v>0.0419776407573037</v>
       </c>
     </row>
     <row r="7">
@@ -678,7 +693,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>57.453073445152</v>
+        <v>93.4072283973787</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -690,16 +705,16 @@
         <v>2410.9373669647</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0238301808385358</v>
+        <v>0.0387431169624186</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0238301808385358</v>
+        <v>0.0387431169624186</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0119150904192679</v>
+        <v>0.0193715584812093</v>
       </c>
     </row>
     <row r="8">
@@ -707,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>55.9783077</v>
+        <v>59.208150757</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -719,16 +734,16 @@
         <v>1648.357721525</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0339600482158757</v>
+        <v>0.0359194791178111</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0339600482158757</v>
+        <v>0.0359194791178111</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0169800241079378</v>
+        <v>0.0179597395589056</v>
       </c>
     </row>
     <row r="9">
@@ -736,7 +751,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>646430786</v>
+        <v>674009474</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -745,19 +760,19 @@
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>7628656811</v>
+        <v>7604833366</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0847371695981776</v>
+        <v>0.0886290917317648</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
       </c>
       <c r="H9" t="n">
-        <v>0.118405849860428</v>
+        <v>0.330025146142038</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0760372650613395</v>
+        <v>0.285710600276156</v>
       </c>
     </row>
     <row r="10">
@@ -765,7 +780,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>1770512169.96196</v>
+        <v>1839615771.60954</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -777,16 +792,16 @@
         <v>37911369128.0531</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0467013513540413</v>
+        <v>0.0485241185934455</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>0.104468353714852</v>
+        <v>0.126359843732394</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0811176780378318</v>
+        <v>0.102097784435671</v>
       </c>
     </row>
     <row r="11">
@@ -794,7 +809,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="n">
-        <v>1805960199.78733</v>
+        <v>1658661447.54567</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -806,16 +821,16 @@
         <v>34010118873.7897</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0531006729641019</v>
+        <v>0.0487696456957678</v>
       </c>
       <c r="G11" t="s">
         <v>22</v>
       </c>
       <c r="H11" t="n">
-        <v>0.108463543847285</v>
+        <v>0.130287526696186</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0819132073652342</v>
+        <v>0.105902703848302</v>
       </c>
     </row>
     <row r="12">
@@ -823,7 +838,7 @@
         <v>32</v>
       </c>
       <c r="B12" t="n">
-        <v>3672431568.80367</v>
+        <v>3067635128.46607</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -835,16 +850,16 @@
         <v>52485585980.0123</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0699702880368377</v>
+        <v>0.0584471921421301</v>
       </c>
       <c r="G12" t="s">
         <v>24</v>
       </c>
       <c r="H12" t="n">
-        <v>0.131254445478557</v>
+        <v>0.147249553720387</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0962693014601377</v>
+        <v>0.118025957649322</v>
       </c>
     </row>
     <row r="13">
@@ -852,7 +867,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="n">
-        <v>5915517500.29167</v>
+        <v>5291607383.8154</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -864,16 +879,16 @@
         <v>57649116432.5891</v>
       </c>
       <c r="F13" t="n">
-        <v>0.10261245733417</v>
+        <v>0.0917899130336724</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
       </c>
       <c r="H13" t="n">
-        <v>0.158380951258815</v>
+        <v>0.17574519454828</v>
       </c>
       <c r="I13" t="n">
-        <v>0.107074722591729</v>
+        <v>0.129850238031444</v>
       </c>
     </row>
     <row r="14">
@@ -881,7 +896,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>271.249500089539</v>
+        <v>183.882998783597</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -893,16 +908,16 @@
         <v>2410.9373669647</v>
       </c>
       <c r="F14" t="n">
-        <v>0.112507899958859</v>
+        <v>0.0762703342290061</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
       </c>
       <c r="H14" t="n">
-        <v>0.136338080797395</v>
+        <v>0.115013451191425</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0800841308179652</v>
+        <v>0.0768782840769216</v>
       </c>
     </row>
     <row r="15">
@@ -910,7 +925,7 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>68.456694403</v>
+        <v>37.051750631</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -922,16 +937,16 @@
         <v>1648.357721525</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0415302415908037</v>
+        <v>0.0224779792317902</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0754902898066794</v>
+        <v>0.0583974583496014</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0547251690112776</v>
+        <v>0.0471584687337063</v>
       </c>
     </row>
     <row r="16">
@@ -939,7 +954,7 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>291392708</v>
+        <v>68699791</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -948,193 +963,193 @@
         <v>17</v>
       </c>
       <c r="E16" t="n">
-        <v>7628656811</v>
+        <v>7604833366</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0381971184730491</v>
+        <v>0.0090337010284993</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
       <c r="H16" t="n">
-        <v>0.156602968333477</v>
+        <v>0.339058847170538</v>
       </c>
       <c r="I16" t="n">
-        <v>0.137504409096953</v>
+        <v>0.334541996656288</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
-        <v>2651997062.2588</v>
+        <v>366043475</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>37911369128.0531</v>
+        <v>7604833366</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0699525531061977</v>
+        <v>0.0481330040230102</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17" t="n">
-        <v>0.17442090682105</v>
+        <v>0.387191851193548</v>
       </c>
       <c r="I17" t="n">
-        <v>0.139444630267951</v>
+        <v>0.363125349182043</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
-        <v>2011735598.65667</v>
+        <v>5632582598.05917</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>34010118873.7897</v>
+        <v>37911369128.0531</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0591510898895163</v>
+        <v>0.148572386796003</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H18" t="n">
-        <v>0.167614633736801</v>
+        <v>0.274932230528397</v>
       </c>
       <c r="I18" t="n">
-        <v>0.138039088792043</v>
+        <v>0.200646037130396</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n">
-        <v>3667927460.2773</v>
+        <v>6360416751.33333</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19" t="n">
-        <v>52485585980.0123</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0698844719324298</v>
+        <v>0.187015422525767</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H19" t="n">
-        <v>0.201138917410986</v>
+        <v>0.317302949221953</v>
       </c>
       <c r="I19" t="n">
-        <v>0.166196681444772</v>
+        <v>0.22379523795907</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="n">
-        <v>3755717144.54397</v>
+        <v>7046440530.81591</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
       </c>
       <c r="E20" t="n">
-        <v>57649116432.5891</v>
+        <v>52485585980.0123</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0651478700273863</v>
+        <v>0.134254774891898</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H20" t="n">
-        <v>0.223528821286201</v>
+        <v>0.281504328612285</v>
       </c>
       <c r="I20" t="n">
-        <v>0.190954886272508</v>
+        <v>0.214376941166336</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
-        <v>252.478739148885</v>
+        <v>6998632788.27725</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E21" t="n">
-        <v>2410.9373669647</v>
+        <v>57649116432.5891</v>
       </c>
       <c r="F21" t="n">
-        <v>0.104722230700978</v>
+        <v>0.121400521315205</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H21" t="n">
-        <v>0.241060311498373</v>
+        <v>0.297145715863484</v>
       </c>
       <c r="I21" t="n">
-        <v>0.188699196147884</v>
+        <v>0.236445455205882</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>177.889454544</v>
+        <v>562.512095176067</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22" t="n">
-        <v>1648.357721525</v>
+        <v>2410.9373669647</v>
       </c>
       <c r="F22" t="n">
-        <v>0.107919204806723</v>
+        <v>0.233316760063433</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H22" t="n">
-        <v>0.183409494613403</v>
+        <v>0.348330211254858</v>
       </c>
       <c r="I22" t="n">
-        <v>0.129449892210041</v>
+        <v>0.231671831223141</v>
       </c>
     </row>
     <row r="23">
@@ -1142,202 +1157,202 @@
         <v>34</v>
       </c>
       <c r="B23" t="n">
-        <v>1150553777</v>
+        <v>443.242337471</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E23" t="n">
-        <v>7628656811</v>
+        <v>1648.357721525</v>
       </c>
       <c r="F23" t="n">
-        <v>0.150819968115616</v>
+        <v>0.268899360668465</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H23" t="n">
-        <v>0.307422936449094</v>
+        <v>0.327296819018066</v>
       </c>
       <c r="I23" t="n">
-        <v>0.232012952391286</v>
+        <v>0.192847138683834</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="n">
-        <v>11057488273.8179</v>
+        <v>252161501</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" t="n">
-        <v>37911369128.0531</v>
+        <v>7604833366</v>
       </c>
       <c r="F24" t="n">
-        <v>0.291666814682136</v>
+        <v>0.0331580573648561</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H24" t="n">
-        <v>0.466087721503186</v>
+        <v>0.420349908558404</v>
       </c>
       <c r="I24" t="n">
-        <v>0.320254314162118</v>
+        <v>0.403770879875976</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="n">
-        <v>12733717099.7997</v>
+        <v>2190026149.92183</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="n">
-        <v>34010118873.7897</v>
+        <v>37911369128.0531</v>
       </c>
       <c r="F25" t="n">
-        <v>0.37440966163788</v>
+        <v>0.0577670023608112</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H25" t="n">
-        <v>0.542024295374681</v>
+        <v>0.332699232889209</v>
       </c>
       <c r="I25" t="n">
-        <v>0.354819464555741</v>
+        <v>0.303815731708803</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>13990702899.5614</v>
+        <v>1882897819.93133</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>52485585980.0123</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F26" t="n">
-        <v>0.26656276458244</v>
+        <v>0.0553628708831833</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H26" t="n">
-        <v>0.467701681993427</v>
+        <v>0.372665820105136</v>
       </c>
       <c r="I26" t="n">
-        <v>0.334420299702207</v>
+        <v>0.344984384663545</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>13850976566.1161</v>
+        <v>3216534914.61995</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>57649116432.5891</v>
+        <v>52485585980.0123</v>
       </c>
       <c r="F27" t="n">
-        <v>0.240263466697057</v>
+        <v>0.0612841574417189</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H27" t="n">
-        <v>0.463792287983258</v>
+        <v>0.342788486054004</v>
       </c>
       <c r="I27" t="n">
-        <v>0.343660554634729</v>
+        <v>0.312146407333144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="n">
-        <v>1053.82759409695</v>
+        <v>3215004399.53195</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E28" t="n">
-        <v>2410.9373669647</v>
+        <v>57649116432.5891</v>
       </c>
       <c r="F28" t="n">
-        <v>0.437102849927492</v>
+        <v>0.0557684939246442</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H28" t="n">
-        <v>0.678163161425865</v>
+        <v>0.352914209788129</v>
       </c>
       <c r="I28" t="n">
-        <v>0.459611736462119</v>
+        <v>0.325029962825806</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>909.377607817</v>
+        <v>57.453073445152</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
       </c>
       <c r="E29" t="n">
-        <v>1648.357721525</v>
+        <v>2410.9373669647</v>
       </c>
       <c r="F29" t="n">
-        <v>0.551687049444387</v>
+        <v>0.0238301808385358</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H29" t="n">
-        <v>0.73509654405779</v>
+        <v>0.372160392093393</v>
       </c>
       <c r="I29" t="n">
-        <v>0.459253019335596</v>
+        <v>0.360245301674125</v>
       </c>
     </row>
     <row r="30">
@@ -1345,202 +1360,202 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>3980613353</v>
+        <v>55.9783077</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E30" t="n">
-        <v>7628656811</v>
+        <v>1648.357721525</v>
       </c>
       <c r="F30" t="n">
-        <v>0.521797408327535</v>
+        <v>0.0339600482158757</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H30" t="n">
-        <v>0.829220344776629</v>
+        <v>0.361256867233942</v>
       </c>
       <c r="I30" t="n">
-        <v>0.568321640612862</v>
+        <v>0.344276843126004</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>17356975844.8493</v>
+        <v>646194610</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
       </c>
       <c r="E31" t="n">
-        <v>37911369128.0531</v>
+        <v>7604833366</v>
       </c>
       <c r="F31" t="n">
-        <v>0.457830361816337</v>
+        <v>0.0849715672783881</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H31" t="n">
-        <v>0.923918083319523</v>
+        <v>0.505321475836792</v>
       </c>
       <c r="I31" t="n">
-        <v>0.695002902411354</v>
+        <v>0.462835692197598</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="n">
-        <v>14522880002.6493</v>
+        <v>1770512169.96196</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
       </c>
       <c r="E32" t="n">
-        <v>34010118873.7897</v>
+        <v>37911369128.0531</v>
       </c>
       <c r="F32" t="n">
-        <v>0.427016443445647</v>
+        <v>0.0467013513540413</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H32" t="n">
-        <v>0.969040738820328</v>
+        <v>0.37940058424325</v>
       </c>
       <c r="I32" t="n">
-        <v>0.755532517097505</v>
+        <v>0.356049908566229</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n">
-        <v>23200881646.6394</v>
+        <v>1805960199.78733</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>52485585980.0123</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F33" t="n">
-        <v>0.442042919278348</v>
+        <v>0.0531006729641019</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H33" t="n">
-        <v>0.909744601271775</v>
+        <v>0.425766493069238</v>
       </c>
       <c r="I33" t="n">
-        <v>0.688723141632601</v>
+        <v>0.399216156587187</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>25840361380.1327</v>
+        <v>3672431568.80367</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34" t="n">
-        <v>57649116432.5891</v>
+        <v>52485585980.0123</v>
       </c>
       <c r="F34" t="n">
-        <v>0.448235167842488</v>
+        <v>0.0699702880368377</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H34" t="n">
-        <v>0.912027455825746</v>
+        <v>0.412758774090841</v>
       </c>
       <c r="I34" t="n">
-        <v>0.687909871904502</v>
+        <v>0.377773630072422</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>573.092842453016</v>
+        <v>5915517500.29167</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E35" t="n">
-        <v>2410.9373669647</v>
+        <v>57649116432.5891</v>
       </c>
       <c r="F35" t="n">
-        <v>0.237705404671928</v>
+        <v>0.10261245733417</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H35" t="n">
-        <v>0.915868566097793</v>
+        <v>0.455526667122299</v>
       </c>
       <c r="I35" t="n">
-        <v>0.797015863761829</v>
+        <v>0.404220438455214</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>349.226381275</v>
+        <v>271.249500089539</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
       </c>
       <c r="E36" t="n">
-        <v>1648.357721525</v>
+        <v>2410.9373669647</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211863224053034</v>
+        <v>0.112507899958859</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H36" t="n">
-        <v>0.946959768110824</v>
+        <v>0.484668292052252</v>
       </c>
       <c r="I36" t="n">
-        <v>0.841028156084307</v>
+        <v>0.428414342072823</v>
       </c>
     </row>
     <row r="37">
@@ -1548,201 +1563,1042 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>1302819380</v>
+        <v>68.456694403</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E37" t="n">
-        <v>7628656811</v>
+        <v>1648.357721525</v>
       </c>
       <c r="F37" t="n">
-        <v>0.170779655223371</v>
+        <v>0.0415302415908037</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0.402787108824746</v>
       </c>
       <c r="I37" t="n">
-        <v>0.914610172388315</v>
+        <v>0.382021988029344</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>1494770229.59111</v>
+        <v>620060477</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
       </c>
       <c r="E38" t="n">
-        <v>37911369128.0531</v>
+        <v>7604833366</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0394280202474943</v>
+        <v>0.0815350510863514</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H38" t="n">
-        <v>0.963346103567017</v>
+        <v>0.586856526923144</v>
       </c>
       <c r="I38" t="n">
-        <v>0.94363209344327</v>
+        <v>0.546089001379968</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1052928152.96533</v>
+        <v>3834337471.23145</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39" t="n">
-        <v>34010118873.7897</v>
+        <v>37911369128.0531</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0309592611796716</v>
+        <v>0.101139514594691</v>
       </c>
       <c r="G39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0.480540098837941</v>
       </c>
       <c r="I39" t="n">
-        <v>0.984520369410164</v>
+        <v>0.429970341540596</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" t="n">
-        <v>3295666265.97798</v>
+        <v>4642006216.20633</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
       </c>
       <c r="E40" t="n">
-        <v>52485585980.0123</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0627918352142062</v>
+        <v>0.136488973573796</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H40" t="n">
-        <v>0.972536436485981</v>
+        <v>0.562255466643034</v>
       </c>
       <c r="I40" t="n">
-        <v>0.941140518878878</v>
+        <v>0.494010979856136</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" t="n">
-        <v>5071539441.97265</v>
+        <v>5018921177.36327</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
       </c>
       <c r="E41" t="n">
-        <v>57649116432.5891</v>
+        <v>52485585980.0123</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0879725441742539</v>
+        <v>0.095624752656369</v>
       </c>
       <c r="G41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0.50838352674721</v>
       </c>
       <c r="I41" t="n">
-        <v>0.956013727912873</v>
+        <v>0.460571150419026</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" t="n">
-        <v>161.669204894152</v>
+        <v>4814195002.7126</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E42" t="n">
-        <v>2410.9373669647</v>
+        <v>57649116432.5891</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0670565760477175</v>
+        <v>0.0835085652759655</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H42" t="n">
-        <v>0.98292514214551</v>
+        <v>0.539035232398265</v>
       </c>
       <c r="I42" t="n">
-        <v>0.949396854121651</v>
+        <v>0.497280949760282</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" t="n">
-        <v>46.262862949</v>
+        <v>386.288258871093</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
       </c>
       <c r="E43" t="n">
+        <v>2410.9373669647</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.160223265923088</v>
+      </c>
+      <c r="G43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.64489155797534</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.564779925013796</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="n">
+        <v>381.497081764</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" t="n">
         <v>1648.357721525</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F44" t="n">
+        <v>0.231440710218564</v>
+      </c>
+      <c r="G44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.63422781904331</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.518507463934028</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="n">
+        <v>291392708</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7604833366</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0383167774987379</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.625173304421882</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.606014915672513</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2651997062.2588</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="n">
+        <v>37911369128.0531</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0699525531061977</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.550492651944139</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.51551637539104</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2011735598.65667</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="n">
+        <v>34010118873.7897</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0591510898895163</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.62140655653255</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.591831011587792</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3667927460.2773</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="n">
+        <v>52485585980.0123</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0698844719324298</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.57826799867964</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.543325762713425</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3755717144.54397</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="n">
+        <v>57649116432.5891</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0651478700273863</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.604183102425651</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.571609167411958</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="n">
+        <v>252.478739148885</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2410.9373669647</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.104722230700978</v>
+      </c>
+      <c r="G50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.749613788676318</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.697252673325829</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" t="n">
+        <v>177.889454544</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1648.357721525</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.107919204806723</v>
+      </c>
+      <c r="G51" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.742147023850033</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.688187421446671</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1470827110</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="n">
+        <v>7604833366</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.193406882072635</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.818580186494516</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.721876745458199</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="n">
+        <v>12566501166.1474</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="n">
+        <v>37911369128.0531</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.331470518083943</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.881963170028082</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.71622791098611</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="n">
+        <v>10091785731.94</v>
+      </c>
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="n">
+        <v>34010118873.7897</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.296728916749461</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.918135473282011</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.769771014907281</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" t="n">
+        <v>15472402534.3296</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="n">
+        <v>52485585980.0123</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.294793365557961</v>
+      </c>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.873061364237602</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.725664681458621</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="n">
+        <v>15708806197.1509</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="n">
+        <v>57649116432.5891</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.272489973294209</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.876673075719859</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.740428089072755</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="n">
+        <v>295.80261527204</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2410.9373669647</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.122691953480503</v>
+      </c>
+      <c r="G57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.872305742156821</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.81095976541657</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" t="n">
+        <v>252.966479887</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1648.357721525</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.153465765703433</v>
+      </c>
+      <c r="G58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.895612789553466</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.818879906701749</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" t="n">
+        <v>156609976</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7604833366</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0205934789709106</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.839173665465427</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.828876925979972</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1590568204.52729</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="n">
+        <v>37911369128.0531</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0419549132914411</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.923918083319523</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.902940626673802</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1731294132.26</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="n">
+        <v>34010118873.7897</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0509052655383173</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.969040738820328</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.94358810605117</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1925341191.38227</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="n">
+        <v>52485585980.0123</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0366832370341732</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.909744601271775</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.891402982754688</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2038148775.12627</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="n">
+        <v>57649116432.5891</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0353543801058867</v>
+      </c>
+      <c r="G63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.912027455825746</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.894350265772803</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" t="n">
+        <v>105.027240049792</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2410.9373669647</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0435628239409713</v>
+      </c>
+      <c r="G64" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.915868566097793</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.894087154127307</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" t="n">
+        <v>84.638188582</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1648.357721525</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0513469785573582</v>
+      </c>
+      <c r="G65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.946959768110824</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.921286278832145</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1291757266</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="n">
+        <v>7604833366</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.169860035563072</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.0090337010285</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.924103683246963</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1494770229.59111</v>
+      </c>
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="n">
+        <v>37911369128.0531</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0394280202474943</v>
+      </c>
+      <c r="G67" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.963346103567017</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.94363209344327</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1052928152.96533</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="n">
+        <v>34010118873.7897</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0309592611796716</v>
+      </c>
+      <c r="G68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.984520369410164</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3295666265.97798</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="n">
+        <v>52485585980.0123</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0627918352142062</v>
+      </c>
+      <c r="G69" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.972536436485981</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.941140518878878</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5071539441.97265</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="n">
+        <v>57649116432.5891</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0879725441742539</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.956013727912873</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" t="n">
+        <v>161.669204894152</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2410.9373669647</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0670565760477175</v>
+      </c>
+      <c r="G71" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.98292514214551</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.949396854121651</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" t="n">
+        <v>46.262862949</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1648.357721525</v>
+      </c>
+      <c r="F72" t="n">
         <v>0.0280660334494622</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G72" t="s">
         <v>31</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H72" t="n">
         <v>0.975025801560286</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I72" t="n">
         <v>0.960992784835555</v>
       </c>
     </row>
@@ -1785,10 +2641,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B2" t="n">
-        <v>1029891751</v>
+        <v>1018829637</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1797,10 +2653,10 @@
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>7628656811</v>
+        <v>7604833366</v>
       </c>
       <c r="F2" t="n">
-        <v>0.135003025632896</v>
+        <v>0.133971329543528</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -1808,7 +2664,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B3" t="n">
         <v>416576733.954922</v>
@@ -1831,7 +2687,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B4" t="n">
         <v>299956840.128</v>
@@ -1854,7 +2710,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B5" t="n">
         <v>1724571434.33839</v>
@@ -1877,7 +2733,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B6" t="n">
         <v>6.943086037</v>
@@ -1900,7 +2756,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
@@ -1915,7 +2771,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B8"/>
       <c r="C8" t="s">

--- a/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_equity_perspectives.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="top panels" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="lower panels" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="geographic regions (top panels)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ldcs and sids (lower panels)" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">Author</t>
   </si>
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-04-01 14:55:42</t>
+    <t xml:space="preserve">2022-04-04 13:55:31</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -117,9 +117,6 @@
     <t xml:space="preserve">South-East Asia and Pacific</t>
   </si>
   <si>
-    <t xml:space="preserve">sids</t>
-  </si>
-  <si>
     <t xml:space="preserve">North America</t>
   </si>
   <si>
@@ -144,7 +141,17 @@
     <t xml:space="preserve">Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">ldc</t>
+    <t xml:space="preserve">region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Least Developed Countries (LDCs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Island Developing States (SIDS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1653
+GtCO2eq</t>
   </si>
 </sst>
 </file>
@@ -954,7 +961,7 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>68699791</v>
+        <v>366043475</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -966,190 +973,190 @@
         <v>7604833366</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0090337010284993</v>
+        <v>0.0481330040230102</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
       <c r="H16" t="n">
-        <v>0.339058847170538</v>
+        <v>0.378158150165049</v>
       </c>
       <c r="I16" t="n">
-        <v>0.334541996656288</v>
+        <v>0.354091648153543</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="n">
-        <v>366043475</v>
+        <v>5632582598.05917</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>7604833366</v>
+        <v>37911369128.0531</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0481330040230102</v>
+        <v>0.148572386796003</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H17" t="n">
-        <v>0.387191851193548</v>
+        <v>0.274932230528397</v>
       </c>
       <c r="I17" t="n">
-        <v>0.363125349182043</v>
+        <v>0.200646037130396</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="n">
-        <v>5632582598.05917</v>
+        <v>6360416751.33333</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>37911369128.0531</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F18" t="n">
-        <v>0.148572386796003</v>
+        <v>0.187015422525767</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H18" t="n">
-        <v>0.274932230528397</v>
+        <v>0.317302949221953</v>
       </c>
       <c r="I18" t="n">
-        <v>0.200646037130396</v>
+        <v>0.22379523795907</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="n">
-        <v>6360416751.33333</v>
+        <v>7046440530.81591</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19" t="n">
-        <v>34010118873.7897</v>
+        <v>52485585980.0123</v>
       </c>
       <c r="F19" t="n">
-        <v>0.187015422525767</v>
+        <v>0.134254774891898</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H19" t="n">
-        <v>0.317302949221953</v>
+        <v>0.281504328612285</v>
       </c>
       <c r="I19" t="n">
-        <v>0.22379523795907</v>
+        <v>0.214376941166336</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="n">
-        <v>7046440530.81591</v>
+        <v>6998632788.27725</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
       </c>
       <c r="E20" t="n">
-        <v>52485585980.0123</v>
+        <v>57649116432.5891</v>
       </c>
       <c r="F20" t="n">
-        <v>0.134254774891898</v>
+        <v>0.121400521315205</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H20" t="n">
-        <v>0.281504328612285</v>
+        <v>0.297145715863484</v>
       </c>
       <c r="I20" t="n">
-        <v>0.214376941166336</v>
+        <v>0.236445455205882</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>6998632788.27725</v>
+        <v>562.512095176067</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n">
-        <v>57649116432.5891</v>
+        <v>2410.9373669647</v>
       </c>
       <c r="F21" t="n">
-        <v>0.121400521315205</v>
+        <v>0.233316760063433</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H21" t="n">
-        <v>0.297145715863484</v>
+        <v>0.348330211254858</v>
       </c>
       <c r="I21" t="n">
-        <v>0.236445455205882</v>
+        <v>0.231671831223141</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="n">
-        <v>562.512095176067</v>
+        <v>443.242337471</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22" t="n">
-        <v>2410.9373669647</v>
+        <v>1648.357721525</v>
       </c>
       <c r="F22" t="n">
-        <v>0.233316760063433</v>
+        <v>0.268899360668465</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H22" t="n">
-        <v>0.348330211254858</v>
+        <v>0.327296819018066</v>
       </c>
       <c r="I22" t="n">
-        <v>0.231671831223141</v>
+        <v>0.192847138683834</v>
       </c>
     </row>
     <row r="23">
@@ -1157,202 +1164,202 @@
         <v>34</v>
       </c>
       <c r="B23" t="n">
-        <v>443.242337471</v>
+        <v>252161501</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>1648.357721525</v>
+        <v>7604833366</v>
       </c>
       <c r="F23" t="n">
-        <v>0.268899360668465</v>
+        <v>0.0331580573648561</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H23" t="n">
-        <v>0.327296819018066</v>
+        <v>0.411316207529905</v>
       </c>
       <c r="I23" t="n">
-        <v>0.192847138683834</v>
+        <v>0.394737178847477</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
-        <v>252161501</v>
+        <v>2190026149.92183</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" t="n">
-        <v>7604833366</v>
+        <v>37911369128.0531</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0331580573648561</v>
+        <v>0.0577670023608112</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H24" t="n">
-        <v>0.420349908558404</v>
+        <v>0.332699232889209</v>
       </c>
       <c r="I24" t="n">
-        <v>0.403770879875976</v>
+        <v>0.303815731708803</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>2190026149.92183</v>
+        <v>1882897819.93133</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="n">
-        <v>37911369128.0531</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0577670023608112</v>
+        <v>0.0553628708831833</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H25" t="n">
-        <v>0.332699232889209</v>
+        <v>0.372665820105136</v>
       </c>
       <c r="I25" t="n">
-        <v>0.303815731708803</v>
+        <v>0.344984384663545</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>1882897819.93133</v>
+        <v>3216534914.61995</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>34010118873.7897</v>
+        <v>52485585980.0123</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0553628708831833</v>
+        <v>0.0612841574417189</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H26" t="n">
-        <v>0.372665820105136</v>
+        <v>0.342788486054004</v>
       </c>
       <c r="I26" t="n">
-        <v>0.344984384663545</v>
+        <v>0.312146407333144</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
-        <v>3216534914.61995</v>
+        <v>3215004399.53195</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>52485585980.0123</v>
+        <v>57649116432.5891</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0612841574417189</v>
+        <v>0.0557684939246442</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H27" t="n">
-        <v>0.342788486054004</v>
+        <v>0.352914209788129</v>
       </c>
       <c r="I27" t="n">
-        <v>0.312146407333144</v>
+        <v>0.325029962825806</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>3215004399.53195</v>
+        <v>57.453073445152</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E28" t="n">
-        <v>57649116432.5891</v>
+        <v>2410.9373669647</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0557684939246442</v>
+        <v>0.0238301808385358</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H28" t="n">
-        <v>0.352914209788129</v>
+        <v>0.372160392093393</v>
       </c>
       <c r="I28" t="n">
-        <v>0.325029962825806</v>
+        <v>0.360245301674125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>57.453073445152</v>
+        <v>55.9783077</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
       </c>
       <c r="E29" t="n">
-        <v>2410.9373669647</v>
+        <v>1648.357721525</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0238301808385358</v>
+        <v>0.0339600482158757</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H29" t="n">
-        <v>0.372160392093393</v>
+        <v>0.361256867233942</v>
       </c>
       <c r="I29" t="n">
-        <v>0.360245301674125</v>
+        <v>0.344276843126004</v>
       </c>
     </row>
     <row r="30">
@@ -1360,202 +1367,202 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>55.9783077</v>
+        <v>646194610</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>1648.357721525</v>
+        <v>7604833366</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0339600482158757</v>
+        <v>0.0849715672783881</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H30" t="n">
-        <v>0.361256867233942</v>
+        <v>0.496287774808293</v>
       </c>
       <c r="I30" t="n">
-        <v>0.344276843126004</v>
+        <v>0.453801991169099</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v>646194610</v>
+        <v>1770512169.96196</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
       </c>
       <c r="E31" t="n">
-        <v>7604833366</v>
+        <v>37911369128.0531</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0849715672783881</v>
+        <v>0.0467013513540413</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H31" t="n">
-        <v>0.505321475836792</v>
+        <v>0.37940058424325</v>
       </c>
       <c r="I31" t="n">
-        <v>0.462835692197598</v>
+        <v>0.356049908566229</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n">
-        <v>1770512169.96196</v>
+        <v>1805960199.78733</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
       </c>
       <c r="E32" t="n">
-        <v>37911369128.0531</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0467013513540413</v>
+        <v>0.0531006729641019</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H32" t="n">
-        <v>0.37940058424325</v>
+        <v>0.425766493069238</v>
       </c>
       <c r="I32" t="n">
-        <v>0.356049908566229</v>
+        <v>0.399216156587187</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>1805960199.78733</v>
+        <v>3672431568.80367</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>34010118873.7897</v>
+        <v>52485585980.0123</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0531006729641019</v>
+        <v>0.0699702880368377</v>
       </c>
       <c r="G33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H33" t="n">
-        <v>0.425766493069238</v>
+        <v>0.412758774090841</v>
       </c>
       <c r="I33" t="n">
-        <v>0.399216156587187</v>
+        <v>0.377773630072422</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>3672431568.80367</v>
+        <v>5915517500.29167</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34" t="n">
-        <v>52485585980.0123</v>
+        <v>57649116432.5891</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0699702880368377</v>
+        <v>0.10261245733417</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H34" t="n">
-        <v>0.412758774090841</v>
+        <v>0.455526667122299</v>
       </c>
       <c r="I34" t="n">
-        <v>0.377773630072422</v>
+        <v>0.404220438455214</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>5915517500.29167</v>
+        <v>271.249500089539</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E35" t="n">
-        <v>57649116432.5891</v>
+        <v>2410.9373669647</v>
       </c>
       <c r="F35" t="n">
-        <v>0.10261245733417</v>
+        <v>0.112507899958859</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H35" t="n">
-        <v>0.455526667122299</v>
+        <v>0.484668292052252</v>
       </c>
       <c r="I35" t="n">
-        <v>0.404220438455214</v>
+        <v>0.428414342072823</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>271.249500089539</v>
+        <v>68.456694403</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
       </c>
       <c r="E36" t="n">
-        <v>2410.9373669647</v>
+        <v>1648.357721525</v>
       </c>
       <c r="F36" t="n">
-        <v>0.112507899958859</v>
+        <v>0.0415302415908037</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H36" t="n">
-        <v>0.484668292052252</v>
+        <v>0.402787108824746</v>
       </c>
       <c r="I36" t="n">
-        <v>0.428414342072823</v>
+        <v>0.382021988029344</v>
       </c>
     </row>
     <row r="37">
@@ -1563,202 +1570,202 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>68.456694403</v>
+        <v>620060477</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E37" t="n">
-        <v>1648.357721525</v>
+        <v>7604833366</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0415302415908037</v>
+        <v>0.0815350510863514</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H37" t="n">
-        <v>0.402787108824746</v>
+        <v>0.577822825894644</v>
       </c>
       <c r="I37" t="n">
-        <v>0.382021988029344</v>
+        <v>0.537055300351469</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>620060477</v>
+        <v>3834337471.23145</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
       </c>
       <c r="E38" t="n">
-        <v>7604833366</v>
+        <v>37911369128.0531</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0815350510863514</v>
+        <v>0.101139514594691</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H38" t="n">
-        <v>0.586856526923144</v>
+        <v>0.480540098837941</v>
       </c>
       <c r="I38" t="n">
-        <v>0.546089001379968</v>
+        <v>0.429970341540596</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" t="n">
-        <v>3834337471.23145</v>
+        <v>4642006216.20633</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39" t="n">
-        <v>37911369128.0531</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F39" t="n">
-        <v>0.101139514594691</v>
+        <v>0.136488973573796</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H39" t="n">
-        <v>0.480540098837941</v>
+        <v>0.562255466643034</v>
       </c>
       <c r="I39" t="n">
-        <v>0.429970341540596</v>
+        <v>0.494010979856136</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" t="n">
-        <v>4642006216.20633</v>
+        <v>5018921177.36327</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
       </c>
       <c r="E40" t="n">
-        <v>34010118873.7897</v>
+        <v>52485585980.0123</v>
       </c>
       <c r="F40" t="n">
-        <v>0.136488973573796</v>
+        <v>0.095624752656369</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H40" t="n">
-        <v>0.562255466643034</v>
+        <v>0.50838352674721</v>
       </c>
       <c r="I40" t="n">
-        <v>0.494010979856136</v>
+        <v>0.460571150419026</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" t="n">
-        <v>5018921177.36327</v>
+        <v>4814195002.7126</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
       </c>
       <c r="E41" t="n">
-        <v>52485585980.0123</v>
+        <v>57649116432.5891</v>
       </c>
       <c r="F41" t="n">
-        <v>0.095624752656369</v>
+        <v>0.0835085652759655</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H41" t="n">
-        <v>0.50838352674721</v>
+        <v>0.539035232398265</v>
       </c>
       <c r="I41" t="n">
-        <v>0.460571150419026</v>
+        <v>0.497280949760282</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" t="n">
-        <v>4814195002.7126</v>
+        <v>386.288258871093</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E42" t="n">
-        <v>57649116432.5891</v>
+        <v>2410.9373669647</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0835085652759655</v>
+        <v>0.160223265923088</v>
       </c>
       <c r="G42" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H42" t="n">
-        <v>0.539035232398265</v>
+        <v>0.64489155797534</v>
       </c>
       <c r="I42" t="n">
-        <v>0.497280949760282</v>
+        <v>0.564779925013796</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" t="n">
-        <v>386.288258871093</v>
+        <v>381.497081764</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
       </c>
       <c r="E43" t="n">
-        <v>2410.9373669647</v>
+        <v>1648.357721525</v>
       </c>
       <c r="F43" t="n">
-        <v>0.160223265923088</v>
+        <v>0.231440710218564</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H43" t="n">
-        <v>0.64489155797534</v>
+        <v>0.63422781904331</v>
       </c>
       <c r="I43" t="n">
-        <v>0.564779925013796</v>
+        <v>0.518507463934028</v>
       </c>
     </row>
     <row r="44">
@@ -1766,202 +1773,202 @@
         <v>37</v>
       </c>
       <c r="B44" t="n">
-        <v>381.497081764</v>
+        <v>291392708</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E44" t="n">
-        <v>1648.357721525</v>
+        <v>7604833366</v>
       </c>
       <c r="F44" t="n">
-        <v>0.231440710218564</v>
+        <v>0.0383167774987379</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H44" t="n">
-        <v>0.63422781904331</v>
+        <v>0.616139603393382</v>
       </c>
       <c r="I44" t="n">
-        <v>0.518507463934028</v>
+        <v>0.596981214644013</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" t="n">
-        <v>291392708</v>
+        <v>2651997062.2588</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
       </c>
       <c r="E45" t="n">
-        <v>7604833366</v>
+        <v>37911369128.0531</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0383167774987379</v>
+        <v>0.0699525531061977</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H45" t="n">
-        <v>0.625173304421882</v>
+        <v>0.550492651944139</v>
       </c>
       <c r="I45" t="n">
-        <v>0.606014915672513</v>
+        <v>0.51551637539104</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" t="n">
-        <v>2651997062.2588</v>
+        <v>2011735598.65667</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
       <c r="E46" t="n">
-        <v>37911369128.0531</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0699525531061977</v>
+        <v>0.0591510898895163</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H46" t="n">
-        <v>0.550492651944139</v>
+        <v>0.62140655653255</v>
       </c>
       <c r="I46" t="n">
-        <v>0.51551637539104</v>
+        <v>0.591831011587792</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" t="n">
-        <v>2011735598.65667</v>
+        <v>3667927460.2773</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
       </c>
       <c r="E47" t="n">
-        <v>34010118873.7897</v>
+        <v>52485585980.0123</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0591510898895163</v>
+        <v>0.0698844719324298</v>
       </c>
       <c r="G47" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H47" t="n">
-        <v>0.62140655653255</v>
+        <v>0.57826799867964</v>
       </c>
       <c r="I47" t="n">
-        <v>0.591831011587792</v>
+        <v>0.543325762713425</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" t="n">
-        <v>3667927460.2773</v>
+        <v>3755717144.54397</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
       </c>
       <c r="E48" t="n">
-        <v>52485585980.0123</v>
+        <v>57649116432.5891</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0698844719324298</v>
+        <v>0.0651478700273863</v>
       </c>
       <c r="G48" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H48" t="n">
-        <v>0.57826799867964</v>
+        <v>0.604183102425651</v>
       </c>
       <c r="I48" t="n">
-        <v>0.543325762713425</v>
+        <v>0.571609167411958</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" t="n">
-        <v>3755717144.54397</v>
+        <v>252.478739148885</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E49" t="n">
-        <v>57649116432.5891</v>
+        <v>2410.9373669647</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0651478700273863</v>
+        <v>0.104722230700978</v>
       </c>
       <c r="G49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H49" t="n">
-        <v>0.604183102425651</v>
+        <v>0.749613788676318</v>
       </c>
       <c r="I49" t="n">
-        <v>0.571609167411958</v>
+        <v>0.697252673325829</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" t="n">
-        <v>252.478739148885</v>
+        <v>177.889454544</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
         <v>28</v>
       </c>
       <c r="E50" t="n">
-        <v>2410.9373669647</v>
+        <v>1648.357721525</v>
       </c>
       <c r="F50" t="n">
-        <v>0.104722230700978</v>
+        <v>0.107919204806723</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H50" t="n">
-        <v>0.749613788676318</v>
+        <v>0.742147023850033</v>
       </c>
       <c r="I50" t="n">
-        <v>0.697252673325829</v>
+        <v>0.688187421446671</v>
       </c>
     </row>
     <row r="51">
@@ -1969,202 +1976,202 @@
         <v>38</v>
       </c>
       <c r="B51" t="n">
-        <v>177.889454544</v>
+        <v>1470827110</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E51" t="n">
-        <v>1648.357721525</v>
+        <v>7604833366</v>
       </c>
       <c r="F51" t="n">
-        <v>0.107919204806723</v>
+        <v>0.193406882072635</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H51" t="n">
-        <v>0.742147023850033</v>
+        <v>0.809546485466017</v>
       </c>
       <c r="I51" t="n">
-        <v>0.688187421446671</v>
+        <v>0.7128430444297</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" t="n">
-        <v>1470827110</v>
+        <v>12566501166.1474</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
       </c>
       <c r="E52" t="n">
-        <v>7604833366</v>
+        <v>37911369128.0531</v>
       </c>
       <c r="F52" t="n">
-        <v>0.193406882072635</v>
+        <v>0.331470518083943</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H52" t="n">
-        <v>0.818580186494516</v>
+        <v>0.881963170028082</v>
       </c>
       <c r="I52" t="n">
-        <v>0.721876745458199</v>
+        <v>0.71622791098611</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" t="n">
-        <v>12566501166.1474</v>
+        <v>10091785731.94</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
       </c>
       <c r="E53" t="n">
-        <v>37911369128.0531</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F53" t="n">
-        <v>0.331470518083943</v>
+        <v>0.296728916749461</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H53" t="n">
-        <v>0.881963170028082</v>
+        <v>0.918135473282011</v>
       </c>
       <c r="I53" t="n">
-        <v>0.71622791098611</v>
+        <v>0.769771014907281</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" t="n">
-        <v>10091785731.94</v>
+        <v>15472402534.3296</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="E54" t="n">
-        <v>34010118873.7897</v>
+        <v>52485585980.0123</v>
       </c>
       <c r="F54" t="n">
-        <v>0.296728916749461</v>
+        <v>0.294793365557961</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H54" t="n">
-        <v>0.918135473282011</v>
+        <v>0.873061364237602</v>
       </c>
       <c r="I54" t="n">
-        <v>0.769771014907281</v>
+        <v>0.725664681458621</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55" t="n">
-        <v>15472402534.3296</v>
+        <v>15708806197.1509</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
       </c>
       <c r="E55" t="n">
-        <v>52485585980.0123</v>
+        <v>57649116432.5891</v>
       </c>
       <c r="F55" t="n">
-        <v>0.294793365557961</v>
+        <v>0.272489973294209</v>
       </c>
       <c r="G55" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H55" t="n">
-        <v>0.873061364237602</v>
+        <v>0.876673075719859</v>
       </c>
       <c r="I55" t="n">
-        <v>0.725664681458621</v>
+        <v>0.740428089072755</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" t="n">
-        <v>15708806197.1509</v>
+        <v>295.80261527204</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E56" t="n">
-        <v>57649116432.5891</v>
+        <v>2410.9373669647</v>
       </c>
       <c r="F56" t="n">
-        <v>0.272489973294209</v>
+        <v>0.122691953480503</v>
       </c>
       <c r="G56" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H56" t="n">
-        <v>0.876673075719859</v>
+        <v>0.872305742156821</v>
       </c>
       <c r="I56" t="n">
-        <v>0.740428089072755</v>
+        <v>0.81095976541657</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" t="n">
-        <v>295.80261527204</v>
+        <v>252.966479887</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D57" t="s">
         <v>28</v>
       </c>
       <c r="E57" t="n">
-        <v>2410.9373669647</v>
+        <v>1648.357721525</v>
       </c>
       <c r="F57" t="n">
-        <v>0.122691953480503</v>
+        <v>0.153465765703433</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H57" t="n">
-        <v>0.872305742156821</v>
+        <v>0.895612789553466</v>
       </c>
       <c r="I57" t="n">
-        <v>0.81095976541657</v>
+        <v>0.818879906701749</v>
       </c>
     </row>
     <row r="58">
@@ -2172,202 +2179,202 @@
         <v>39</v>
       </c>
       <c r="B58" t="n">
-        <v>252.966479887</v>
+        <v>156609976</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E58" t="n">
-        <v>1648.357721525</v>
+        <v>7604833366</v>
       </c>
       <c r="F58" t="n">
-        <v>0.153465765703433</v>
+        <v>0.0205934789709106</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H58" t="n">
-        <v>0.895612789553466</v>
+        <v>0.830139964436928</v>
       </c>
       <c r="I58" t="n">
-        <v>0.818879906701749</v>
+        <v>0.819843224951472</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B59" t="n">
-        <v>156609976</v>
+        <v>1590568204.52729</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
       <c r="E59" t="n">
-        <v>7604833366</v>
+        <v>37911369128.0531</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0205934789709106</v>
+        <v>0.0419549132914411</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H59" t="n">
-        <v>0.839173665465427</v>
+        <v>0.923918083319523</v>
       </c>
       <c r="I59" t="n">
-        <v>0.828876925979972</v>
+        <v>0.902940626673802</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B60" t="n">
-        <v>1590568204.52729</v>
+        <v>1731294132.26</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
       </c>
       <c r="E60" t="n">
-        <v>37911369128.0531</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0419549132914411</v>
+        <v>0.0509052655383173</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H60" t="n">
-        <v>0.923918083319523</v>
+        <v>0.969040738820328</v>
       </c>
       <c r="I60" t="n">
-        <v>0.902940626673802</v>
+        <v>0.94358810605117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B61" t="n">
-        <v>1731294132.26</v>
+        <v>1925341191.38227</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
       </c>
       <c r="E61" t="n">
-        <v>34010118873.7897</v>
+        <v>52485585980.0123</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0509052655383173</v>
+        <v>0.0366832370341732</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H61" t="n">
-        <v>0.969040738820328</v>
+        <v>0.909744601271775</v>
       </c>
       <c r="I61" t="n">
-        <v>0.94358810605117</v>
+        <v>0.891402982754688</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B62" t="n">
-        <v>1925341191.38227</v>
+        <v>2038148775.12627</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
       </c>
       <c r="E62" t="n">
-        <v>52485585980.0123</v>
+        <v>57649116432.5891</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0366832370341732</v>
+        <v>0.0353543801058867</v>
       </c>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H62" t="n">
-        <v>0.909744601271775</v>
+        <v>0.912027455825746</v>
       </c>
       <c r="I62" t="n">
-        <v>0.891402982754688</v>
+        <v>0.894350265772803</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B63" t="n">
-        <v>2038148775.12627</v>
+        <v>105.027240049792</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E63" t="n">
-        <v>57649116432.5891</v>
+        <v>2410.9373669647</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0353543801058867</v>
+        <v>0.0435628239409713</v>
       </c>
       <c r="G63" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H63" t="n">
-        <v>0.912027455825746</v>
+        <v>0.915868566097793</v>
       </c>
       <c r="I63" t="n">
-        <v>0.894350265772803</v>
+        <v>0.894087154127307</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B64" t="n">
-        <v>105.027240049792</v>
+        <v>84.638188582</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D64" t="s">
         <v>28</v>
       </c>
       <c r="E64" t="n">
-        <v>2410.9373669647</v>
+        <v>1648.357721525</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0435628239409713</v>
+        <v>0.0513469785573582</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H64" t="n">
-        <v>0.915868566097793</v>
+        <v>0.946959768110824</v>
       </c>
       <c r="I64" t="n">
-        <v>0.894087154127307</v>
+        <v>0.921286278832145</v>
       </c>
     </row>
     <row r="65">
@@ -2375,230 +2382,201 @@
         <v>40</v>
       </c>
       <c r="B65" t="n">
-        <v>84.638188582</v>
+        <v>1291757266</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E65" t="n">
-        <v>1648.357721525</v>
+        <v>7604833366</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0513469785573582</v>
+        <v>0.169860035563072</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H65" t="n">
-        <v>0.946959768110824</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0.921286278832145</v>
+        <v>0.915069982218464</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66" t="n">
-        <v>1291757266</v>
+        <v>1494770229.59111</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
       </c>
       <c r="E66" t="n">
-        <v>7604833366</v>
+        <v>37911369128.0531</v>
       </c>
       <c r="F66" t="n">
-        <v>0.169860035563072</v>
+        <v>0.0394280202474943</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H66" t="n">
-        <v>1.0090337010285</v>
+        <v>0.963346103567017</v>
       </c>
       <c r="I66" t="n">
-        <v>0.924103683246963</v>
+        <v>0.94363209344327</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B67" t="n">
-        <v>1494770229.59111</v>
+        <v>1052928152.96533</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D67" t="s">
         <v>17</v>
       </c>
       <c r="E67" t="n">
-        <v>37911369128.0531</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0394280202474943</v>
+        <v>0.0309592611796716</v>
       </c>
       <c r="G67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H67" t="n">
-        <v>0.963346103567017</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0.94363209344327</v>
+        <v>0.984520369410164</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B68" t="n">
-        <v>1052928152.96533</v>
+        <v>3295666265.97798</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
         <v>17</v>
       </c>
       <c r="E68" t="n">
-        <v>34010118873.7897</v>
+        <v>52485585980.0123</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0309592611796716</v>
+        <v>0.0627918352142062</v>
       </c>
       <c r="G68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0.972536436485981</v>
       </c>
       <c r="I68" t="n">
-        <v>0.984520369410164</v>
+        <v>0.941140518878878</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B69" t="n">
-        <v>3295666265.97798</v>
+        <v>5071539441.97265</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
       </c>
       <c r="E69" t="n">
-        <v>52485585980.0123</v>
+        <v>57649116432.5891</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0627918352142062</v>
+        <v>0.0879725441742539</v>
       </c>
       <c r="G69" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H69" t="n">
-        <v>0.972536436485981</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0.941140518878878</v>
+        <v>0.956013727912873</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B70" t="n">
-        <v>5071539441.97265</v>
+        <v>161.669204894152</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E70" t="n">
-        <v>57649116432.5891</v>
+        <v>2410.9373669647</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0879725441742539</v>
+        <v>0.0670565760477175</v>
       </c>
       <c r="G70" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0.98292514214551</v>
       </c>
       <c r="I70" t="n">
-        <v>0.956013727912873</v>
+        <v>0.949396854121651</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B71" t="n">
-        <v>161.669204894152</v>
+        <v>46.262862949</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D71" t="s">
         <v>28</v>
       </c>
       <c r="E71" t="n">
-        <v>2410.9373669647</v>
+        <v>1648.357721525</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0670565760477175</v>
+        <v>0.0280660334494622</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H71" t="n">
-        <v>0.98292514214551</v>
+        <v>0.975025801560286</v>
       </c>
       <c r="I71" t="n">
-        <v>0.949396854121651</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>41</v>
-      </c>
-      <c r="B72" t="n">
-        <v>46.262862949</v>
-      </c>
-      <c r="C72" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1648.357721525</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.0280660334494622</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.975025801560286</v>
-      </c>
-      <c r="I72" t="n">
         <v>0.960992784835555</v>
       </c>
     </row>
@@ -2618,7 +2596,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -2644,30 +2622,30 @@
         <v>42</v>
       </c>
       <c r="B2" t="n">
-        <v>1018829637</v>
+        <v>416576733.954922</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>7604833366</v>
+        <v>37911369128.0531</v>
       </c>
       <c r="F2" t="n">
-        <v>0.133971329543528</v>
+        <v>0.0109881743533939</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="n">
-        <v>416576733.954922</v>
+        <v>200862744.708961</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2679,7 +2657,7 @@
         <v>37911369128.0531</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0109881743533939</v>
+        <v>0.00529821922364522</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -2690,45 +2668,45 @@
         <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>299956840.128</v>
+        <v>1018829637</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>34010118873.7897</v>
+        <v>7604833366</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00881963515744032</v>
+        <v>0.133971329543528</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>1724571434.33839</v>
+        <v>68699791</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>52485585980.0123</v>
+        <v>7604833366</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0328580009565892</v>
+        <v>0.0090337010284993</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -2736,53 +2714,175 @@
         <v>42</v>
       </c>
       <c r="B6" t="n">
-        <v>6.943086037</v>
+        <v>299956840.128</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>1648.357721525</v>
+        <v>34010118873.7897</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00421212334333382</v>
+        <v>0.00881963515744032</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="n">
+        <v>1724571434.33839</v>
+      </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
+        <v>17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>52485585980.0123</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0328580009565892</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="n">
+        <v>316617955.173171</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="n">
+        <v>52485585980.0123</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00603247442628813</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="B8"/>
-      <c r="C8" t="s">
+      <c r="B9" t="n">
+        <v>6.943086037</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1648.357721525</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.00421212334333382</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7.742140506</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1652.92024058</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00468391657136664</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
